--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3138332.984281199</v>
+        <v>-3140083.553199835</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6661238.247473563</v>
+        <v>6661238.24747356</v>
       </c>
     </row>
     <row r="8">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>279.1418457774241</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>251.0910457346266</v>
+        <v>251.0910457346265</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>278.3383741862053</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>303.284049855655</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9234123546364</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.91180785883456</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>107.3023197792037</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.8776303936352</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>266.1391047924126</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>282.6459427699972</v>
+        <v>269.0359481294356</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.94118776381096</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>69.11650310225936</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>43.85306967858233</v>
       </c>
       <c r="E12" t="n">
-        <v>54.05308456934456</v>
+        <v>54.05308456934452</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>32.26016863753165</v>
+        <v>32.26016863753161</v>
       </c>
       <c r="H12" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S12" t="n">
-        <v>40.38995403882647</v>
+        <v>40.38995403882643</v>
       </c>
       <c r="T12" t="n">
-        <v>90.56153510783025</v>
+        <v>90.56153510783021</v>
       </c>
       <c r="U12" t="n">
-        <v>122.2512708896801</v>
+        <v>146.3161387837062</v>
       </c>
       <c r="V12" t="n">
-        <v>129.2085912633689</v>
+        <v>129.2085912633688</v>
       </c>
       <c r="W12" t="n">
         <v>148.1029872748632</v>
@@ -1515,7 +1515,7 @@
         <v>102.1809893174211</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9154462438206</v>
+        <v>102.0906998912479</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.23998429588092</v>
+        <v>76.23998429588087</v>
       </c>
       <c r="C13" t="n">
-        <v>63.65482521257145</v>
+        <v>63.65482521257141</v>
       </c>
       <c r="D13" t="n">
-        <v>45.02347713215597</v>
+        <v>45.02347713215593</v>
       </c>
       <c r="E13" t="n">
-        <v>42.84196676051279</v>
+        <v>42.84196676051275</v>
       </c>
       <c r="F13" t="n">
-        <v>41.82905213687486</v>
+        <v>41.82905213687482</v>
       </c>
       <c r="G13" t="n">
-        <v>63.14868351712487</v>
+        <v>63.14868351712483</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51887338264316</v>
+        <v>47.51887338264312</v>
       </c>
       <c r="I13" t="n">
-        <v>14.25854947703827</v>
+        <v>14.25854947703824</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48336295654443</v>
+        <v>17.4833629565444</v>
       </c>
       <c r="S13" t="n">
-        <v>98.63528383939786</v>
+        <v>98.63528383939781</v>
       </c>
       <c r="T13" t="n">
         <v>119.0114028242212</v>
@@ -1591,7 +1591,7 @@
         <v>182.9310024505346</v>
       </c>
       <c r="X13" t="n">
-        <v>122.1176595029808</v>
+        <v>122.1176595029807</v>
       </c>
       <c r="Y13" t="n">
         <v>114.9926574660384</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.3658722031588</v>
+        <v>279.1418457774241</v>
       </c>
       <c r="C14" t="n">
-        <v>261.6808958849512</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>38.22230968939056</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>278.3383741862053</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>303.284049855655</v>
       </c>
       <c r="G14" t="n">
-        <v>308.9234123546364</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H14" t="n">
-        <v>207.3370702978283</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91180785883456</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>107.3023197792037</v>
       </c>
       <c r="U14" t="n">
-        <v>147.5306706798247</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>224.1602625840785</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>245.6489728313566</v>
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>54.05308456934456</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>140.4554327864751</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.852164523588</v>
+        <v>32.26016863753161</v>
       </c>
       <c r="H15" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.04962311002271</v>
+        <v>27.67596504456646</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S15" t="n">
-        <v>143.9819499248829</v>
+        <v>40.38995403882643</v>
       </c>
       <c r="T15" t="n">
-        <v>90.56153510783025</v>
+        <v>90.56153510783021</v>
       </c>
       <c r="U15" t="n">
         <v>225.8432667757365</v>
@@ -1746,10 +1746,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>148.1029872748632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>102.1809893174211</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.23998429588092</v>
+        <v>76.23998429588087</v>
       </c>
       <c r="C16" t="n">
-        <v>63.65482521257145</v>
+        <v>63.65482521257141</v>
       </c>
       <c r="D16" t="n">
-        <v>45.02347713215597</v>
+        <v>45.02347713215593</v>
       </c>
       <c r="E16" t="n">
-        <v>42.84196676051279</v>
+        <v>42.84196676051275</v>
       </c>
       <c r="F16" t="n">
-        <v>41.82905213687486</v>
+        <v>41.82905213687482</v>
       </c>
       <c r="G16" t="n">
-        <v>63.14868351712487</v>
+        <v>63.14868351712483</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51887338264316</v>
+        <v>47.51887338264312</v>
       </c>
       <c r="I16" t="n">
-        <v>14.25854947703828</v>
+        <v>14.25854947703824</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48336295654443</v>
+        <v>17.4833629565444</v>
       </c>
       <c r="S16" t="n">
-        <v>98.63528383939786</v>
+        <v>98.63528383939781</v>
       </c>
       <c r="T16" t="n">
         <v>119.0114028242212</v>
@@ -1828,7 +1828,7 @@
         <v>182.9310024505346</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1176595029808</v>
+        <v>122.1176595029807</v>
       </c>
       <c r="Y16" t="n">
         <v>114.9926574660384</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.8331492527604</v>
+        <v>177.2685685814723</v>
       </c>
       <c r="C17" t="n">
-        <v>182.3721993602874</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D17" t="n">
-        <v>171.7823492099628</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E17" t="n">
-        <v>199.0296776615416</v>
+        <v>199.0296776615415</v>
       </c>
       <c r="F17" t="n">
-        <v>223.9753533309913</v>
+        <v>223.9753533309912</v>
       </c>
       <c r="G17" t="n">
         <v>229.6147158299725</v>
       </c>
       <c r="H17" t="n">
-        <v>128.0283737731646</v>
+        <v>128.0283737731645</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>27.99362325453992</v>
+        <v>27.99362325453986</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22197415516092</v>
+        <v>68.22197415516086</v>
       </c>
       <c r="V17" t="n">
         <v>144.8515660594147</v>
@@ -1907,10 +1907,10 @@
         <v>166.3402763066928</v>
       </c>
       <c r="X17" t="n">
-        <v>164.2658275964608</v>
+        <v>186.8304082677488</v>
       </c>
       <c r="Y17" t="n">
-        <v>203.3372462453334</v>
+        <v>203.3372462453333</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9.203933720092149</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.04962311002271</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9819499248829</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1535309938866</v>
+        <v>190.8876228287549</v>
       </c>
       <c r="U18" t="n">
         <v>225.8432667757365</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.93558665124006</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.32658731473405</v>
+        <v>53.26369026132242</v>
       </c>
       <c r="T19" t="n">
         <v>222.6033987102776</v>
@@ -2059,16 +2059,16 @@
         <v>286.2508311771121</v>
       </c>
       <c r="V19" t="n">
-        <v>69.23695091310782</v>
+        <v>69.23695091310776</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>103.6223059258708</v>
       </c>
       <c r="X19" t="n">
-        <v>42.80896297831697</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.68396094137461</v>
+        <v>35.68396094137455</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.8331492527604</v>
+        <v>177.2685685814723</v>
       </c>
       <c r="C20" t="n">
-        <v>182.3721993602874</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D20" t="n">
-        <v>171.7823492099628</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E20" t="n">
-        <v>199.0296776615416</v>
+        <v>199.0296776615415</v>
       </c>
       <c r="F20" t="n">
-        <v>223.9753533309913</v>
+        <v>223.9753533309912</v>
       </c>
       <c r="G20" t="n">
         <v>229.6147158299725</v>
       </c>
       <c r="H20" t="n">
-        <v>128.0283737731646</v>
+        <v>128.0283737731645</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.429042583251881</v>
+        <v>27.99362325453986</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22197415516092</v>
+        <v>68.22197415516086</v>
       </c>
       <c r="V20" t="n">
         <v>144.8515660594147</v>
@@ -2144,10 +2144,10 @@
         <v>166.3402763066928</v>
       </c>
       <c r="X20" t="n">
-        <v>186.8304082677489</v>
+        <v>186.8304082677488</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.3372462453334</v>
+        <v>203.3372462453333</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>72.5091687854342</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>35.65283432070557</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S21" t="n">
         <v>143.9819499248829</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1535309938866</v>
+        <v>11.25283858316639</v>
       </c>
       <c r="U21" t="n">
-        <v>42.94257436501631</v>
+        <v>225.8432667757365</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.32658731473405</v>
+        <v>19.326587314734</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6033987102776</v>
+        <v>79.20391772541588</v>
       </c>
       <c r="U22" t="n">
-        <v>177.2622823512562</v>
+        <v>286.2508311771121</v>
       </c>
       <c r="V22" t="n">
-        <v>69.23695091310782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>103.6223059258708</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>42.80896297831691</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.68396094137461</v>
+        <v>35.68396094137455</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>199.8331492527604</v>
+        <v>199.8331492527603</v>
       </c>
       <c r="C23" t="n">
-        <v>182.3721993602874</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D23" t="n">
-        <v>171.7823492099628</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E23" t="n">
-        <v>199.0296776615416</v>
+        <v>199.0296776615415</v>
       </c>
       <c r="F23" t="n">
-        <v>223.9753533309913</v>
+        <v>223.9753533309912</v>
       </c>
       <c r="G23" t="n">
         <v>229.6147158299725</v>
       </c>
       <c r="H23" t="n">
-        <v>128.0283737731646</v>
+        <v>128.0283737731645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.99362325453992</v>
+        <v>27.99362325453986</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22197415516092</v>
+        <v>68.22197415516086</v>
       </c>
       <c r="V23" t="n">
         <v>144.8515660594147</v>
@@ -2381,10 +2381,10 @@
         <v>166.3402763066928</v>
       </c>
       <c r="X23" t="n">
-        <v>186.8304082677489</v>
+        <v>186.8304082677488</v>
       </c>
       <c r="Y23" t="n">
-        <v>203.3372462453334</v>
+        <v>203.3372462453333</v>
       </c>
     </row>
     <row r="24">
@@ -2403,19 +2403,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.852164523588</v>
+        <v>67.40488684784511</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I24" t="n">
-        <v>38.04962311002271</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S24" t="n">
         <v>143.9819499248829</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1535309938866</v>
+        <v>11.25283858316639</v>
       </c>
       <c r="U24" t="n">
         <v>225.8432667757365</v>
       </c>
       <c r="V24" t="n">
-        <v>99.42375264154728</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2476,28 +2476,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>71.4408085119879</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.32658731473405</v>
+        <v>19.326587314734</v>
       </c>
       <c r="T25" t="n">
-        <v>120.7593335346179</v>
+        <v>39.70270629955736</v>
       </c>
       <c r="U25" t="n">
         <v>103.3501387663919</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>69.23695091310776</v>
       </c>
       <c r="W25" t="n">
         <v>103.6223059258708</v>
       </c>
       <c r="X25" t="n">
-        <v>42.80896297831697</v>
+        <v>42.80896297831691</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>231.620369659221</v>
       </c>
       <c r="I26" t="n">
-        <v>23.70868119280453</v>
+        <v>23.70868119280452</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.19510722022717</v>
+        <v>66.19510722022713</v>
       </c>
       <c r="T26" t="n">
-        <v>131.5856191405964</v>
+        <v>131.5856191405963</v>
       </c>
       <c r="U26" t="n">
         <v>171.8139700412173</v>
@@ -2652,7 +2652,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I27" t="n">
-        <v>38.04962311002271</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.563150089057089</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S27" t="n">
         <v>143.9819499248829</v>
@@ -2713,25 +2713,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C28" t="n">
-        <v>87.93812457396406</v>
+        <v>87.93812457396403</v>
       </c>
       <c r="D28" t="n">
-        <v>69.30677649354858</v>
+        <v>69.30677649354855</v>
       </c>
       <c r="E28" t="n">
-        <v>67.1252661219054</v>
+        <v>67.12526612190537</v>
       </c>
       <c r="F28" t="n">
-        <v>66.11235149826747</v>
+        <v>66.11235149826744</v>
       </c>
       <c r="G28" t="n">
-        <v>87.43198287851747</v>
+        <v>87.43198287851745</v>
       </c>
       <c r="H28" t="n">
-        <v>71.80217274403577</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I28" t="n">
-        <v>38.54184883843089</v>
+        <v>38.54184883843087</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76666231793704</v>
+        <v>41.76666231793702</v>
       </c>
       <c r="S28" t="n">
         <v>122.9185832007905</v>
@@ -2810,7 +2810,7 @@
         <v>231.620369659221</v>
       </c>
       <c r="I29" t="n">
-        <v>23.70868119280453</v>
+        <v>23.70868119280451</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.19510722022717</v>
+        <v>66.19510722022713</v>
       </c>
       <c r="T29" t="n">
-        <v>131.5856191405964</v>
+        <v>131.5856191405963</v>
       </c>
       <c r="U29" t="n">
         <v>171.8139700412173</v>
@@ -2950,25 +2950,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C31" t="n">
-        <v>87.93812457396406</v>
+        <v>87.93812457396403</v>
       </c>
       <c r="D31" t="n">
-        <v>69.30677649354858</v>
+        <v>69.30677649354855</v>
       </c>
       <c r="E31" t="n">
-        <v>67.1252661219054</v>
+        <v>67.12526612190537</v>
       </c>
       <c r="F31" t="n">
-        <v>66.11235149826747</v>
+        <v>66.11235149826744</v>
       </c>
       <c r="G31" t="n">
-        <v>87.43198287851747</v>
+        <v>87.43198287851745</v>
       </c>
       <c r="H31" t="n">
-        <v>71.80217274403576</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I31" t="n">
-        <v>38.54184883843088</v>
+        <v>38.54184883843086</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76666231793705</v>
+        <v>41.76666231793701</v>
       </c>
       <c r="S31" t="n">
         <v>122.9185832007905</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C32" t="n">
         <v>285.9641952463437</v>
       </c>
       <c r="D32" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E32" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F32" t="n">
         <v>327.5673492170476</v>
       </c>
       <c r="G32" t="n">
-        <v>333.2067117160289</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H32" t="n">
         <v>231.6203696592209</v>
       </c>
       <c r="I32" t="n">
-        <v>23.70868119280445</v>
+        <v>23.70868119280449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.19510722022709</v>
+        <v>66.19510722022713</v>
       </c>
       <c r="T32" t="n">
-        <v>131.5856191405962</v>
+        <v>131.5856191405963</v>
       </c>
       <c r="U32" t="n">
         <v>171.8139700412173</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.5232836572734</v>
+        <v>100.5232836572735</v>
       </c>
       <c r="C34" t="n">
-        <v>87.93812457396398</v>
+        <v>87.93812457396402</v>
       </c>
       <c r="D34" t="n">
-        <v>69.3067764935485</v>
+        <v>69.30677649354854</v>
       </c>
       <c r="E34" t="n">
-        <v>67.12526612190531</v>
+        <v>67.12526612190536</v>
       </c>
       <c r="F34" t="n">
-        <v>66.11235149826739</v>
+        <v>66.11235149826743</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43198287851739</v>
+        <v>87.43198287851743</v>
       </c>
       <c r="H34" t="n">
-        <v>71.80217274403569</v>
+        <v>71.80217274403573</v>
       </c>
       <c r="I34" t="n">
-        <v>38.5418488384308</v>
+        <v>38.54184883843084</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76666231793696</v>
+        <v>41.766662317937</v>
       </c>
       <c r="S34" t="n">
         <v>122.9185832007904</v>
       </c>
       <c r="T34" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U34" t="n">
         <v>206.9421346524483</v>
@@ -3253,7 +3253,7 @@
         <v>146.4009588643733</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="35">
@@ -3421,31 +3421,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.42491719274364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>14.83975810943417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>34.05396119231315</v>
+        <v>14.33361641398759</v>
       </c>
       <c r="H37" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.962973278552951</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>134.1159353473973</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>83.5693451838408</v>
       </c>
       <c r="Y37" t="n">
         <v>66.17759036290113</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>58.48725267606643</v>
+        <v>58.48725267606645</v>
       </c>
       <c r="U38" t="n">
         <v>98.71560357668744</v>
@@ -3630,7 +3630,7 @@
         <v>7.563150089057089</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9819499248829</v>
+        <v>143.9819499248817</v>
       </c>
       <c r="T39" t="n">
         <v>194.1535309938866</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.42491719274364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>14.83975810943417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>10.2667527839974</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.962973278552951</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>49.82021673626058</v>
@@ -3715,16 +3715,16 @@
         <v>70.19633572108394</v>
       </c>
       <c r="U40" t="n">
-        <v>176.6136084260806</v>
+        <v>133.8437681879184</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>99.73058033463434</v>
       </c>
       <c r="W40" t="n">
         <v>134.1159353473973</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>73.30259239984349</v>
       </c>
       <c r="Y40" t="n">
         <v>66.17759036290113</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.48725267606643</v>
+        <v>58.48725267606645</v>
       </c>
       <c r="U41" t="n">
         <v>98.71560357668744</v>
@@ -3898,7 +3898,7 @@
         <v>27.42491719274364</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>14.83975810943417</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.33361641398759</v>
+        <v>56.66149057359693</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.962973278552951</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.82021673626058</v>
+        <v>202.2272797254542</v>
       </c>
       <c r="T43" t="n">
         <v>70.19633572108394</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2508311771121</v>
+        <v>133.8437681879184</v>
       </c>
       <c r="V43" t="n">
-        <v>142.5004205727964</v>
+        <v>99.73058033463434</v>
       </c>
       <c r="W43" t="n">
         <v>134.1159353473973</v>
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8521645235869</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H45" t="n">
         <v>97.83211742750971</v>
@@ -4141,22 +4141,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.7406794031812</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>19.43427812190308</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.962973278552951</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>133.8437681879184</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>99.73058033463434</v>
       </c>
       <c r="W46" t="n">
-        <v>145.5540714389664</v>
+        <v>134.1159353473973</v>
       </c>
       <c r="X46" t="n">
         <v>73.30259239984349</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>66.17759036290113</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>594.1372853031796</v>
+        <v>869.5908324619916</v>
       </c>
       <c r="C11" t="n">
-        <v>594.1372853031796</v>
+        <v>869.5908324619916</v>
       </c>
       <c r="D11" t="n">
-        <v>340.5099663793144</v>
+        <v>615.9635135381263</v>
       </c>
       <c r="E11" t="n">
-        <v>340.5099663793144</v>
+        <v>334.8136406227674</v>
       </c>
       <c r="F11" t="n">
-        <v>340.5099663793144</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="G11" t="n">
         <v>28.46611551604508</v>
@@ -5039,19 +5039,19 @@
         <v>28.46611551604508</v>
       </c>
       <c r="J11" t="n">
-        <v>83.4360471612577</v>
+        <v>83.43604716125753</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5602434586309</v>
+        <v>216.5602434586308</v>
       </c>
       <c r="L11" t="n">
         <v>418.6143424701344</v>
       </c>
       <c r="M11" t="n">
-        <v>675.1078967214453</v>
+        <v>675.1078967214451</v>
       </c>
       <c r="N11" t="n">
-        <v>940.3655932151304</v>
+        <v>940.3655932151302</v>
       </c>
       <c r="O11" t="n">
         <v>1177.505652943962</v>
@@ -5066,25 +5066,25 @@
         <v>1423.305775802254</v>
       </c>
       <c r="S11" t="n">
-        <v>1380.970616348886</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="T11" t="n">
-        <v>1272.58443475373</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="U11" t="n">
-        <v>1272.58443475373</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="V11" t="n">
-        <v>1148.465616174301</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="W11" t="n">
-        <v>1148.465616174301</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="X11" t="n">
-        <v>879.6382375961061</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="Y11" t="n">
-        <v>594.1372853031796</v>
+        <v>1151.552292843228</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.7551576318713</v>
+        <v>480.934836998023</v>
       </c>
       <c r="C12" t="n">
-        <v>509.9405080336295</v>
+        <v>306.481807716896</v>
       </c>
       <c r="D12" t="n">
-        <v>361.0060983723782</v>
+        <v>262.18577773853</v>
       </c>
       <c r="E12" t="n">
-        <v>306.4070230498079</v>
+        <v>207.5867024159597</v>
       </c>
       <c r="F12" t="n">
-        <v>159.8724650766929</v>
+        <v>61.05214444284468</v>
       </c>
       <c r="G12" t="n">
-        <v>127.2864361498933</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="H12" t="n">
         <v>28.46611551604508</v>
@@ -5118,22 +5118,22 @@
         <v>28.46611551604508</v>
       </c>
       <c r="J12" t="n">
-        <v>42.38798326520934</v>
+        <v>42.38798326520931</v>
       </c>
       <c r="K12" t="n">
-        <v>144.3374974159257</v>
+        <v>144.3374974159256</v>
       </c>
       <c r="L12" t="n">
-        <v>327.7437416982009</v>
+        <v>327.7437416982008</v>
       </c>
       <c r="M12" t="n">
-        <v>617.884032701317</v>
+        <v>561.1270462342094</v>
       </c>
       <c r="N12" t="n">
-        <v>871.8529437704448</v>
+        <v>815.0959573033369</v>
       </c>
       <c r="O12" t="n">
-        <v>1224.121123281503</v>
+        <v>1025.208098878738</v>
       </c>
       <c r="P12" t="n">
         <v>1373.421574466097</v>
@@ -5145,25 +5145,25 @@
         <v>1415.666230257752</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.8682968852</v>
+        <v>1374.868296885199</v>
       </c>
       <c r="T12" t="n">
         <v>1283.391998796482</v>
       </c>
       <c r="U12" t="n">
-        <v>1159.905866584684</v>
+        <v>1135.597919216981</v>
       </c>
       <c r="V12" t="n">
-        <v>1029.392138035827</v>
+        <v>1005.084190668124</v>
       </c>
       <c r="W12" t="n">
-        <v>879.7931609905104</v>
+        <v>855.4852136228072</v>
       </c>
       <c r="X12" t="n">
-        <v>776.5800404678628</v>
+        <v>752.2720931001597</v>
       </c>
       <c r="Y12" t="n">
-        <v>643.332114969054</v>
+        <v>649.1501740180911</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.9564464442483</v>
+        <v>349.9564464442485</v>
       </c>
       <c r="C13" t="n">
-        <v>285.6586431992267</v>
+        <v>285.6586431992269</v>
       </c>
       <c r="D13" t="n">
-        <v>240.1803834697762</v>
+        <v>240.1803834697764</v>
       </c>
       <c r="E13" t="n">
-        <v>196.9056695702683</v>
+        <v>196.9056695702686</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6541017552432</v>
+        <v>154.6541017552435</v>
       </c>
       <c r="G13" t="n">
-        <v>90.86755274804636</v>
+        <v>90.86755274804659</v>
       </c>
       <c r="H13" t="n">
-        <v>42.86869074537667</v>
+        <v>42.86869074537664</v>
       </c>
       <c r="I13" t="n">
         <v>28.46611551604508</v>
@@ -5200,22 +5200,22 @@
         <v>28.46611551604508</v>
       </c>
       <c r="K13" t="n">
-        <v>252.7848953916358</v>
+        <v>150.22881946444</v>
       </c>
       <c r="L13" t="n">
-        <v>464.1256696168242</v>
+        <v>387.2116113483597</v>
       </c>
       <c r="M13" t="n">
-        <v>799.9000828958929</v>
+        <v>620.4299487002324</v>
       </c>
       <c r="N13" t="n">
-        <v>1033.007625876006</v>
+        <v>853.5374916803455</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.303875852798</v>
+        <v>1052.833741657137</v>
       </c>
       <c r="P13" t="n">
-        <v>1404.957582628881</v>
+        <v>1302.401506701685</v>
       </c>
       <c r="Q13" t="n">
         <v>1423.305775802254</v>
@@ -5233,16 +5233,16 @@
         <v>1001.296801144457</v>
       </c>
       <c r="V13" t="n">
-        <v>851.2506926214553</v>
+        <v>851.2506926214551</v>
       </c>
       <c r="W13" t="n">
-        <v>666.4719022673798</v>
+        <v>666.4719022673797</v>
       </c>
       <c r="X13" t="n">
         <v>543.1207310522477</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9665315916028</v>
+        <v>426.9665315916029</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>829.2882679936026</v>
+        <v>981.6385382445839</v>
       </c>
       <c r="C14" t="n">
-        <v>564.9641307360762</v>
+        <v>981.6385382445839</v>
       </c>
       <c r="D14" t="n">
-        <v>564.9641307360762</v>
+        <v>943.0301446189368</v>
       </c>
       <c r="E14" t="n">
-        <v>564.9641307360762</v>
+        <v>661.8802717035778</v>
       </c>
       <c r="F14" t="n">
-        <v>564.9641307360762</v>
+        <v>355.5327465968555</v>
       </c>
       <c r="G14" t="n">
-        <v>252.9202798728072</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="H14" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I14" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J14" t="n">
-        <v>98.4588273787991</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K14" t="n">
-        <v>552.4869821216254</v>
+        <v>719.8926311419783</v>
       </c>
       <c r="L14" t="n">
-        <v>754.5410811331291</v>
+        <v>921.9467301534819</v>
       </c>
       <c r="M14" t="n">
-        <v>1100.243632575624</v>
+        <v>1178.440284404793</v>
       </c>
       <c r="N14" t="n">
-        <v>1365.501329069309</v>
+        <v>1443.697980898478</v>
       </c>
       <c r="O14" t="n">
-        <v>1903.676413772442</v>
+        <v>1680.83804062731</v>
       </c>
       <c r="P14" t="n">
-        <v>2071.56896746286</v>
+        <v>1861.377126709554</v>
       </c>
       <c r="Q14" t="n">
-        <v>2149.476536630734</v>
+        <v>2149.476536630733</v>
       </c>
       <c r="R14" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S14" t="n">
-        <v>2132.109627225958</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T14" t="n">
-        <v>2023.723445630803</v>
+        <v>2066.058605084171</v>
       </c>
       <c r="U14" t="n">
-        <v>1874.702566156233</v>
+        <v>2066.058605084171</v>
       </c>
       <c r="V14" t="n">
-        <v>1648.278058495547</v>
+        <v>2066.058605084171</v>
       </c>
       <c r="W14" t="n">
-        <v>1400.147782908318</v>
+        <v>1817.928329496942</v>
       </c>
       <c r="X14" t="n">
-        <v>1131.320404330124</v>
+        <v>1549.100950918747</v>
       </c>
       <c r="Y14" t="n">
-        <v>845.8194520371974</v>
+        <v>1263.599998625821</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>837.8282765112579</v>
+        <v>733.1898968283717</v>
       </c>
       <c r="C15" t="n">
-        <v>663.3752472301309</v>
+        <v>558.7368675472447</v>
       </c>
       <c r="D15" t="n">
-        <v>514.4408375688796</v>
+        <v>409.8024578859935</v>
       </c>
       <c r="E15" t="n">
-        <v>459.8417622463093</v>
+        <v>250.565002880538</v>
       </c>
       <c r="F15" t="n">
-        <v>317.9675877145163</v>
+        <v>104.0304449074229</v>
       </c>
       <c r="G15" t="n">
-        <v>180.7431791048314</v>
+        <v>71.44441598062335</v>
       </c>
       <c r="H15" t="n">
-        <v>81.92285847098321</v>
+        <v>71.44441598062335</v>
       </c>
       <c r="I15" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J15" t="n">
         <v>182.2408884697555</v>
       </c>
       <c r="K15" t="n">
-        <v>461.5348094009061</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L15" t="n">
-        <v>644.9410536831813</v>
+        <v>729.4172315451997</v>
       </c>
       <c r="M15" t="n">
-        <v>1183.116138386315</v>
+        <v>962.8005360812083</v>
       </c>
       <c r="N15" t="n">
-        <v>1437.085049455442</v>
+        <v>1216.769447150336</v>
       </c>
       <c r="O15" t="n">
-        <v>1975.260134158576</v>
+        <v>1452.005478346546</v>
       </c>
       <c r="P15" t="n">
-        <v>2124.56058534317</v>
+        <v>1916.584070484678</v>
       </c>
       <c r="Q15" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R15" t="n">
         <v>2166.805241134824</v>
       </c>
       <c r="S15" t="n">
-        <v>2021.368928079387</v>
+        <v>2126.007307762271</v>
       </c>
       <c r="T15" t="n">
-        <v>1929.89262999067</v>
+        <v>2034.531009673554</v>
       </c>
       <c r="U15" t="n">
-        <v>1701.768118095986</v>
+        <v>1806.406497778871</v>
       </c>
       <c r="V15" t="n">
-        <v>1466.616009864244</v>
+        <v>1571.254389547128</v>
       </c>
       <c r="W15" t="n">
         <v>1317.017032818927</v>
       </c>
       <c r="X15" t="n">
-        <v>1213.80391229628</v>
+        <v>1109.165532613394</v>
       </c>
       <c r="Y15" t="n">
-        <v>1006.043613531326</v>
+        <v>901.4052338484398</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.97922666179</v>
+        <v>364.9792266617897</v>
       </c>
       <c r="C16" t="n">
-        <v>300.6814234167683</v>
+        <v>300.681423416768</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2031636873178</v>
+        <v>255.2031636873176</v>
       </c>
       <c r="E16" t="n">
-        <v>211.9284497878099</v>
+        <v>211.9284497878098</v>
       </c>
       <c r="F16" t="n">
-        <v>169.6768819727848</v>
+        <v>169.6768819727847</v>
       </c>
       <c r="G16" t="n">
-        <v>105.890332965588</v>
+        <v>105.8903329655879</v>
       </c>
       <c r="H16" t="n">
-        <v>57.89147096291813</v>
+        <v>57.89147096291808</v>
       </c>
       <c r="I16" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J16" t="n">
         <v>141.1316281150149</v>
       </c>
       <c r="K16" t="n">
-        <v>365.4504079906056</v>
+        <v>293.4496932679083</v>
       </c>
       <c r="L16" t="n">
-        <v>607.3465434202931</v>
+        <v>504.7904674930966</v>
       </c>
       <c r="M16" t="n">
-        <v>840.5648807721659</v>
+        <v>738.0088048449694</v>
       </c>
       <c r="N16" t="n">
-        <v>1073.672423752279</v>
+        <v>971.1163478250825</v>
       </c>
       <c r="O16" t="n">
-        <v>1272.968673729071</v>
+        <v>1272.96867372907</v>
       </c>
       <c r="P16" t="n">
-        <v>1419.980362846423</v>
+        <v>1419.980362846422</v>
       </c>
       <c r="Q16" t="n">
-        <v>1438.328556019796</v>
+        <v>1438.328556019795</v>
       </c>
       <c r="R16" t="n">
         <v>1420.668593437427</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.036993599652</v>
+        <v>1321.036993599651</v>
       </c>
       <c r="T16" t="n">
-        <v>1200.823455393368</v>
+        <v>1200.823455393367</v>
       </c>
       <c r="U16" t="n">
         <v>1016.319581361998</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2734728389968</v>
+        <v>866.2734728389962</v>
       </c>
       <c r="W16" t="n">
-        <v>681.4946824849214</v>
+        <v>681.4946824849209</v>
       </c>
       <c r="X16" t="n">
-        <v>558.1435112697893</v>
+        <v>558.1435112697889</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9893118091445</v>
+        <v>441.9893118091441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1189.754218123405</v>
+        <v>1189.754218123404</v>
       </c>
       <c r="C17" t="n">
-        <v>1005.539875335236</v>
+        <v>1005.539875335235</v>
       </c>
       <c r="D17" t="n">
-        <v>832.022350880728</v>
+        <v>832.0223508807277</v>
       </c>
       <c r="E17" t="n">
-        <v>630.9822724347264</v>
+        <v>630.9822724347262</v>
       </c>
       <c r="F17" t="n">
-        <v>404.7445417973615</v>
+        <v>404.7445417973612</v>
       </c>
       <c r="G17" t="n">
         <v>172.8104854034497</v>
       </c>
       <c r="H17" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I17" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J17" t="n">
         <v>265.8644763991521</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3864278907679</v>
+        <v>398.9886726965252</v>
       </c>
       <c r="L17" t="n">
-        <v>959.5615125939012</v>
+        <v>601.0427717080288</v>
       </c>
       <c r="M17" t="n">
-        <v>1216.055066845212</v>
+        <v>857.5363259593396</v>
       </c>
       <c r="N17" t="n">
-        <v>1481.312763338897</v>
+        <v>1122.794022453025</v>
       </c>
       <c r="O17" t="n">
-        <v>1718.452823067729</v>
+        <v>1374.903851929368</v>
       </c>
       <c r="P17" t="n">
-        <v>1886.345376758147</v>
+        <v>1861.377126709554</v>
       </c>
       <c r="Q17" t="n">
-        <v>2174.444786679327</v>
+        <v>2149.476536630733</v>
       </c>
       <c r="R17" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S17" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T17" t="n">
-        <v>2146.168399553529</v>
+        <v>2146.168399553528</v>
       </c>
       <c r="U17" t="n">
-        <v>2077.257314548316</v>
+        <v>2077.257314548315</v>
       </c>
       <c r="V17" t="n">
-        <v>1930.942601356988</v>
+        <v>1930.942601356987</v>
       </c>
       <c r="W17" t="n">
         <v>1762.922120239116</v>
       </c>
       <c r="X17" t="n">
-        <v>1596.997041858853</v>
+        <v>1574.204536130279</v>
       </c>
       <c r="Y17" t="n">
-        <v>1391.605884035284</v>
+        <v>1368.81337830671</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>523.9131374626022</v>
+        <v>672.6483476545353</v>
       </c>
       <c r="C18" t="n">
-        <v>523.9131374626022</v>
+        <v>498.1953183734083</v>
       </c>
       <c r="D18" t="n">
-        <v>374.9787278013509</v>
+        <v>349.2609087121571</v>
       </c>
       <c r="E18" t="n">
-        <v>374.9787278013509</v>
+        <v>190.0234537067016</v>
       </c>
       <c r="F18" t="n">
-        <v>228.4441698282359</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="G18" t="n">
-        <v>91.21976121855104</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="H18" t="n">
-        <v>81.92285847098321</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I18" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J18" t="n">
-        <v>57.41076348275079</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3602776334671</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L18" t="n">
-        <v>697.5353623366004</v>
+        <v>729.4172315451997</v>
       </c>
       <c r="M18" t="n">
-        <v>930.9186668726092</v>
+        <v>962.8005360812083</v>
       </c>
       <c r="N18" t="n">
-        <v>1184.887577941737</v>
+        <v>1216.769447150336</v>
       </c>
       <c r="O18" t="n">
-        <v>1723.06266264487</v>
+        <v>1452.005478346546</v>
       </c>
       <c r="P18" t="n">
-        <v>2124.56058534317</v>
+        <v>1916.584070484678</v>
       </c>
       <c r="Q18" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R18" t="n">
         <v>2166.805241134824</v>
       </c>
       <c r="S18" t="n">
-        <v>2021.368928079387</v>
+        <v>2166.805241134824</v>
       </c>
       <c r="T18" t="n">
-        <v>1825.254250307785</v>
+        <v>1973.989460499718</v>
       </c>
       <c r="U18" t="n">
-        <v>1597.129738413101</v>
+        <v>1745.864948605034</v>
       </c>
       <c r="V18" t="n">
-        <v>1361.977630181359</v>
+        <v>1510.712840373292</v>
       </c>
       <c r="W18" t="n">
-        <v>1107.740273453157</v>
+        <v>1256.47548364509</v>
       </c>
       <c r="X18" t="n">
-        <v>899.8887732476242</v>
+        <v>1048.623983439557</v>
       </c>
       <c r="Y18" t="n">
-        <v>692.1284744826703</v>
+        <v>840.8636846746033</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.48889573358653</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="C19" t="n">
-        <v>43.48889573358653</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="D19" t="n">
-        <v>43.48889573358653</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="E19" t="n">
-        <v>43.48889573358653</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="F19" t="n">
-        <v>43.48889573358653</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="G19" t="n">
-        <v>43.48889573358653</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="H19" t="n">
-        <v>43.48889573358653</v>
+        <v>48.50200005535719</v>
       </c>
       <c r="I19" t="n">
-        <v>43.48889573358653</v>
+        <v>48.50200005535719</v>
       </c>
       <c r="J19" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="K19" t="n">
-        <v>165.2515996819815</v>
+        <v>165.2515996819814</v>
       </c>
       <c r="L19" t="n">
         <v>376.5923739071698</v>
@@ -5695,28 +5695,28 @@
         <v>1207.574386506672</v>
       </c>
       <c r="R19" t="n">
-        <v>1085.276044241419</v>
+        <v>1207.574386506672</v>
       </c>
       <c r="S19" t="n">
-        <v>1065.754238873001</v>
+        <v>1153.772679172003</v>
       </c>
       <c r="T19" t="n">
-        <v>840.9023209838315</v>
+        <v>928.9207612828338</v>
       </c>
       <c r="U19" t="n">
-        <v>551.7600672695769</v>
+        <v>639.7785075685791</v>
       </c>
       <c r="V19" t="n">
-        <v>481.8237532159326</v>
+        <v>569.8421935149349</v>
       </c>
       <c r="W19" t="n">
-        <v>192.406583178972</v>
+        <v>465.173197630217</v>
       </c>
       <c r="X19" t="n">
-        <v>149.1652064331973</v>
+        <v>237.1836467321997</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.1208014419098</v>
+        <v>201.1392417409123</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1189.754218123405</v>
+        <v>1189.754218123404</v>
       </c>
       <c r="C20" t="n">
-        <v>1005.539875335236</v>
+        <v>1005.539875335235</v>
       </c>
       <c r="D20" t="n">
-        <v>832.0223508807279</v>
+        <v>832.0223508807276</v>
       </c>
       <c r="E20" t="n">
-        <v>630.9822724347263</v>
+        <v>630.982272434726</v>
       </c>
       <c r="F20" t="n">
-        <v>404.7445417973614</v>
+        <v>404.7445417973612</v>
       </c>
       <c r="G20" t="n">
         <v>172.8104854034497</v>
       </c>
       <c r="H20" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I20" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J20" t="n">
-        <v>98.4588273787991</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5830236761723</v>
+        <v>438.9266924926293</v>
       </c>
       <c r="L20" t="n">
-        <v>595.800940163457</v>
+        <v>640.9807915041329</v>
       </c>
       <c r="M20" t="n">
-        <v>852.294494414768</v>
+        <v>897.4743457554438</v>
       </c>
       <c r="N20" t="n">
-        <v>1390.469579117901</v>
+        <v>1162.732042249129</v>
       </c>
       <c r="O20" t="n">
-        <v>1928.644663821035</v>
+        <v>1399.872101977961</v>
       </c>
       <c r="P20" t="n">
-        <v>2096.537217511453</v>
+        <v>1886.345376758146</v>
       </c>
       <c r="Q20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T20" t="n">
-        <v>2168.960905282102</v>
+        <v>2146.168399553528</v>
       </c>
       <c r="U20" t="n">
-        <v>2100.04982027689</v>
+        <v>2077.257314548315</v>
       </c>
       <c r="V20" t="n">
-        <v>1953.735107085562</v>
+        <v>1930.942601356987</v>
       </c>
       <c r="W20" t="n">
-        <v>1785.71462596769</v>
+        <v>1762.922120239116</v>
       </c>
       <c r="X20" t="n">
-        <v>1596.997041858853</v>
+        <v>1574.204536130279</v>
       </c>
       <c r="Y20" t="n">
-        <v>1391.605884035284</v>
+        <v>1368.81337830671</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>708.6613116148449</v>
+        <v>708.661311614844</v>
       </c>
       <c r="C21" t="n">
-        <v>635.4197269830931</v>
+        <v>534.208282333717</v>
       </c>
       <c r="D21" t="n">
-        <v>486.4853173218419</v>
+        <v>385.2738726724657</v>
       </c>
       <c r="E21" t="n">
-        <v>327.2478623163864</v>
+        <v>226.0364176670102</v>
       </c>
       <c r="F21" t="n">
-        <v>180.7133043432714</v>
+        <v>79.50185969389517</v>
       </c>
       <c r="G21" t="n">
-        <v>43.48889573358653</v>
+        <v>79.50185969389517</v>
       </c>
       <c r="H21" t="n">
-        <v>43.48889573358653</v>
+        <v>79.50185969389517</v>
       </c>
       <c r="I21" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J21" t="n">
-        <v>164.3935825658936</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K21" t="n">
-        <v>266.3430967166099</v>
+        <v>284.1904026204718</v>
       </c>
       <c r="L21" t="n">
-        <v>449.7493409988851</v>
+        <v>467.5966469027469</v>
       </c>
       <c r="M21" t="n">
-        <v>987.9244257020184</v>
+        <v>1005.77173160588</v>
       </c>
       <c r="N21" t="n">
-        <v>1241.893336771146</v>
+        <v>1259.740642675008</v>
       </c>
       <c r="O21" t="n">
-        <v>1452.005478346547</v>
+        <v>1797.915727378141</v>
       </c>
       <c r="P21" t="n">
-        <v>1916.584070484679</v>
+        <v>2124.560585343169</v>
       </c>
       <c r="Q21" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R21" t="n">
         <v>2166.805241134824</v>
       </c>
       <c r="S21" t="n">
-        <v>2021.368928079387</v>
+        <v>2021.368928079386</v>
       </c>
       <c r="T21" t="n">
-        <v>1825.254250307785</v>
+        <v>2010.002424460026</v>
       </c>
       <c r="U21" t="n">
-        <v>1781.877912565344</v>
+        <v>1781.877912565343</v>
       </c>
       <c r="V21" t="n">
-        <v>1546.725804333601</v>
+        <v>1546.7258043336</v>
       </c>
       <c r="W21" t="n">
-        <v>1292.4884476054</v>
+        <v>1292.488447605399</v>
       </c>
       <c r="X21" t="n">
-        <v>1084.636947399867</v>
+        <v>1084.636947399866</v>
       </c>
       <c r="Y21" t="n">
-        <v>876.876648634913</v>
+        <v>876.876648634912</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>345.5085869656033</v>
+        <v>198.6186394676929</v>
       </c>
       <c r="C22" t="n">
-        <v>345.5085869656033</v>
+        <v>198.6186394676929</v>
       </c>
       <c r="D22" t="n">
-        <v>195.3919475532675</v>
+        <v>48.50200005535719</v>
       </c>
       <c r="E22" t="n">
-        <v>195.3919475532675</v>
+        <v>48.50200005535719</v>
       </c>
       <c r="F22" t="n">
         <v>48.50200005535719</v>
@@ -5908,10 +5908,10 @@
         <v>48.50200005535719</v>
       </c>
       <c r="J22" t="n">
-        <v>43.48889573358653</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="K22" t="n">
-        <v>165.2515996819815</v>
+        <v>165.2515996819814</v>
       </c>
       <c r="L22" t="n">
         <v>376.5923739071698</v>
@@ -5938,22 +5938,22 @@
         <v>1188.052581138254</v>
       </c>
       <c r="T22" t="n">
-        <v>963.2006632490848</v>
+        <v>1108.048623839854</v>
       </c>
       <c r="U22" t="n">
-        <v>784.1478527932704</v>
+        <v>818.9063701255996</v>
       </c>
       <c r="V22" t="n">
-        <v>714.2115387396261</v>
+        <v>564.2218819197127</v>
       </c>
       <c r="W22" t="n">
-        <v>609.5425428549081</v>
+        <v>459.5528860349947</v>
       </c>
       <c r="X22" t="n">
-        <v>381.5529919568908</v>
+        <v>416.3115092892201</v>
       </c>
       <c r="Y22" t="n">
-        <v>345.5085869656033</v>
+        <v>380.2671042979326</v>
       </c>
     </row>
     <row r="23">
@@ -5966,64 +5966,64 @@
         <v>1190.219371301539</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.005028513369</v>
+        <v>1006.00502851337</v>
       </c>
       <c r="D23" t="n">
         <v>832.4875040588618</v>
       </c>
       <c r="E23" t="n">
-        <v>631.4474256128602</v>
+        <v>631.4474256128601</v>
       </c>
       <c r="F23" t="n">
         <v>405.2096949754953</v>
       </c>
       <c r="G23" t="n">
-        <v>173.2756385815839</v>
+        <v>173.2756385815838</v>
       </c>
       <c r="H23" t="n">
-        <v>43.95404891172069</v>
+        <v>43.95404891172068</v>
       </c>
       <c r="I23" t="n">
-        <v>43.95404891172069</v>
+        <v>43.95404891172068</v>
       </c>
       <c r="J23" t="n">
         <v>266.3296295772863</v>
       </c>
       <c r="K23" t="n">
-        <v>399.4538258746595</v>
+        <v>437.2161013507449</v>
       </c>
       <c r="L23" t="n">
-        <v>861.2514666516104</v>
+        <v>639.2702003622485</v>
       </c>
       <c r="M23" t="n">
-        <v>1117.745020902921</v>
+        <v>895.7637546135594</v>
       </c>
       <c r="N23" t="n">
-        <v>1383.002717396607</v>
+        <v>1161.021451107245</v>
       </c>
       <c r="O23" t="n">
-        <v>1926.93407267915</v>
+        <v>1398.161510836076</v>
       </c>
       <c r="P23" t="n">
-        <v>2094.826626369568</v>
+        <v>1884.634785616262</v>
       </c>
       <c r="Q23" t="n">
-        <v>2172.734195537442</v>
+        <v>2172.734195537441</v>
       </c>
       <c r="R23" t="n">
-        <v>2197.702445586035</v>
+        <v>2197.702445586034</v>
       </c>
       <c r="S23" t="n">
-        <v>2197.702445586035</v>
+        <v>2197.702445586034</v>
       </c>
       <c r="T23" t="n">
-        <v>2169.426058460237</v>
+        <v>2169.426058460236</v>
       </c>
       <c r="U23" t="n">
-        <v>2100.514973455024</v>
+        <v>2100.514973455023</v>
       </c>
       <c r="V23" t="n">
-        <v>1954.200260263696</v>
+        <v>1954.200260263695</v>
       </c>
       <c r="W23" t="n">
         <v>1786.179779145824</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.5344171742955</v>
+        <v>731.918970521552</v>
       </c>
       <c r="C24" t="n">
-        <v>515.0813878931685</v>
+        <v>557.465941240425</v>
       </c>
       <c r="D24" t="n">
-        <v>366.1469782319173</v>
+        <v>408.5315315791737</v>
       </c>
       <c r="E24" t="n">
-        <v>366.1469782319173</v>
+        <v>249.2940765737182</v>
       </c>
       <c r="F24" t="n">
-        <v>219.6124202588022</v>
+        <v>249.2940765737182</v>
       </c>
       <c r="G24" t="n">
-        <v>82.38801164911737</v>
+        <v>181.2083322829656</v>
       </c>
       <c r="H24" t="n">
         <v>82.38801164911737</v>
       </c>
       <c r="I24" t="n">
-        <v>43.95404891172069</v>
+        <v>43.95404891172068</v>
       </c>
       <c r="J24" t="n">
         <v>182.7060416478897</v>
       </c>
       <c r="K24" t="n">
-        <v>546.4761404410589</v>
+        <v>546.4761404410588</v>
       </c>
       <c r="L24" t="n">
-        <v>759.2577073191129</v>
+        <v>985.7752949312076</v>
       </c>
       <c r="M24" t="n">
-        <v>992.6410118551216</v>
+        <v>1219.158599467216</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.609922924249</v>
+        <v>1473.127510536344</v>
       </c>
       <c r="O24" t="n">
-        <v>1790.541278206793</v>
+        <v>1683.239652111745</v>
       </c>
       <c r="P24" t="n">
-        <v>1939.841729391387</v>
+        <v>2147.818244249877</v>
       </c>
       <c r="Q24" t="n">
-        <v>2197.702445586035</v>
+        <v>2197.702445586034</v>
       </c>
       <c r="R24" t="n">
-        <v>2197.702445586035</v>
+        <v>2190.062900041532</v>
       </c>
       <c r="S24" t="n">
-        <v>2052.266132530598</v>
+        <v>2044.626586986094</v>
       </c>
       <c r="T24" t="n">
-        <v>1856.151454758995</v>
+        <v>2033.260083366734</v>
       </c>
       <c r="U24" t="n">
-        <v>1628.026942864312</v>
+        <v>1805.135571472051</v>
       </c>
       <c r="V24" t="n">
-        <v>1527.598909893052</v>
+        <v>1569.983463240308</v>
       </c>
       <c r="W24" t="n">
-        <v>1273.36155316485</v>
+        <v>1315.746106512107</v>
       </c>
       <c r="X24" t="n">
-        <v>1065.510052959317</v>
+        <v>1107.894606306574</v>
       </c>
       <c r="Y24" t="n">
-        <v>857.7497541943635</v>
+        <v>900.13430754162</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>338.7570899920241</v>
+        <v>605.3806451897825</v>
       </c>
       <c r="C25" t="n">
-        <v>338.7570899920241</v>
+        <v>436.4444622618756</v>
       </c>
       <c r="D25" t="n">
-        <v>338.7570899920241</v>
+        <v>436.4444622618756</v>
       </c>
       <c r="E25" t="n">
-        <v>190.843996409631</v>
+        <v>436.4444622618756</v>
       </c>
       <c r="F25" t="n">
-        <v>43.95404891172069</v>
+        <v>289.5545147639652</v>
       </c>
       <c r="G25" t="n">
-        <v>43.95404891172069</v>
+        <v>121.1295860738832</v>
       </c>
       <c r="H25" t="n">
-        <v>43.95404891172069</v>
+        <v>48.96715323349135</v>
       </c>
       <c r="I25" t="n">
-        <v>43.95404891172069</v>
+        <v>48.96715323349135</v>
       </c>
       <c r="J25" t="n">
-        <v>43.95404891172069</v>
+        <v>43.95404891172068</v>
       </c>
       <c r="K25" t="n">
         <v>165.7167528601156</v>
@@ -6154,16 +6154,16 @@
         <v>377.0575270853039</v>
       </c>
       <c r="M25" t="n">
-        <v>610.2758644371768</v>
+        <v>610.2758644371767</v>
       </c>
       <c r="N25" t="n">
-        <v>843.3834074172898</v>
+        <v>843.3834074172897</v>
       </c>
       <c r="O25" t="n">
         <v>1042.679657394081</v>
       </c>
       <c r="P25" t="n">
-        <v>1189.691346511434</v>
+        <v>1189.691346511433</v>
       </c>
       <c r="Q25" t="n">
         <v>1208.039539684806</v>
@@ -6175,22 +6175,22 @@
         <v>1188.517734316388</v>
       </c>
       <c r="T25" t="n">
-        <v>1066.538609533946</v>
+        <v>1148.413990579461</v>
       </c>
       <c r="U25" t="n">
-        <v>962.1445299719338</v>
+        <v>1044.019911017449</v>
       </c>
       <c r="V25" t="n">
-        <v>707.460041766047</v>
+        <v>974.0835969638052</v>
       </c>
       <c r="W25" t="n">
-        <v>602.791045881329</v>
+        <v>869.4146010790873</v>
       </c>
       <c r="X25" t="n">
-        <v>559.5496691355543</v>
+        <v>826.1732243333126</v>
       </c>
       <c r="Y25" t="n">
-        <v>338.7570899920241</v>
+        <v>605.3806451897825</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>1871.612319227323</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.759596756268</v>
+        <v>1582.759596756269</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.603692618875</v>
+        <v>1304.603692618876</v>
       </c>
       <c r="E26" t="n">
-        <v>998.9252344899886</v>
+        <v>998.9252344899892</v>
       </c>
       <c r="F26" t="n">
-        <v>668.0491241697384</v>
+        <v>668.0491241697389</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4766880929415</v>
+        <v>331.4766880929419</v>
       </c>
       <c r="H26" t="n">
-        <v>97.5167187401929</v>
+        <v>97.51671874019291</v>
       </c>
       <c r="I26" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J26" t="n">
         <v>295.9441365847438</v>
       </c>
       <c r="K26" t="n">
-        <v>662.9574189477353</v>
+        <v>749.97229132757</v>
       </c>
       <c r="L26" t="n">
-        <v>865.011517959239</v>
+        <v>1365.510992744019</v>
       </c>
       <c r="M26" t="n">
-        <v>1566.523470368454</v>
+        <v>1999.49692553632</v>
       </c>
       <c r="N26" t="n">
-        <v>2264.754622030004</v>
+        <v>2264.754622030005</v>
       </c>
       <c r="O26" t="n">
-        <v>2878.886861208954</v>
+        <v>2878.886861208955</v>
       </c>
       <c r="P26" t="n">
         <v>3365.36013598914</v>
       </c>
       <c r="Q26" t="n">
-        <v>3653.459545910319</v>
+        <v>3653.45954591032</v>
       </c>
       <c r="R26" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S26" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T26" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U26" t="n">
-        <v>3305.099819795234</v>
+        <v>3305.099819795235</v>
       </c>
       <c r="V26" t="n">
-        <v>3054.146726921021</v>
+        <v>3054.146726921022</v>
       </c>
       <c r="W26" t="n">
-        <v>2781.487866120264</v>
+        <v>2781.487866120265</v>
       </c>
       <c r="X26" t="n">
-        <v>2488.131902328541</v>
+        <v>2488.131902328542</v>
       </c>
       <c r="Y26" t="n">
-        <v>2178.102364822087</v>
+        <v>2178.102364822088</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I27" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J27" t="n">
         <v>212.3205486553472</v>
       </c>
       <c r="K27" t="n">
-        <v>314.2700628060635</v>
+        <v>576.0906474485164</v>
       </c>
       <c r="L27" t="n">
-        <v>817.910987440502</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M27" t="n">
-        <v>1051.294291976511</v>
+        <v>1360.012138117225</v>
       </c>
       <c r="N27" t="n">
-        <v>1305.263203045638</v>
+        <v>1613.981049186352</v>
       </c>
       <c r="O27" t="n">
         <v>1905.299040705002</v>
@@ -6367,10 +6367,10 @@
         <v>407.9257499405489</v>
       </c>
       <c r="E28" t="n">
-        <v>340.1224508275132</v>
+        <v>340.1224508275131</v>
       </c>
       <c r="F28" t="n">
-        <v>273.3422977989602</v>
+        <v>273.3422977989601</v>
       </c>
       <c r="G28" t="n">
         <v>185.0271635782354</v>
@@ -6379,10 +6379,10 @@
         <v>112.4997163620377</v>
       </c>
       <c r="I28" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J28" t="n">
-        <v>147.1708219328279</v>
+        <v>147.170821932828</v>
       </c>
       <c r="K28" t="n">
         <v>347.44913544064</v>
@@ -6394,19 +6394,19 @@
         <v>949.0394661365355</v>
       </c>
       <c r="N28" t="n">
-        <v>1260.662618676066</v>
+        <v>1260.662618676065</v>
       </c>
       <c r="O28" t="n">
-        <v>1538.474478212275</v>
+        <v>1538.474478212274</v>
       </c>
       <c r="P28" t="n">
-        <v>1764.001776889044</v>
+        <v>1764.001776889043</v>
       </c>
       <c r="Q28" t="n">
-        <v>1860.865579621834</v>
+        <v>1860.865579621833</v>
       </c>
       <c r="R28" t="n">
-        <v>1818.677031825938</v>
+        <v>1818.677031825937</v>
       </c>
       <c r="S28" t="n">
         <v>1694.516846774634</v>
@@ -6421,13 +6421,13 @@
         <v>1166.167570373395</v>
       </c>
       <c r="W28" t="n">
-        <v>956.860194805792</v>
+        <v>956.8601948057918</v>
       </c>
       <c r="X28" t="n">
-        <v>808.980438377132</v>
+        <v>808.9804383771318</v>
       </c>
       <c r="Y28" t="n">
-        <v>668.2976537029592</v>
+        <v>668.2976537029591</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.612319227322</v>
+        <v>1871.612319227323</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.759596756268</v>
+        <v>1582.759596756269</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.603692618875</v>
+        <v>1304.603692618876</v>
       </c>
       <c r="E29" t="n">
-        <v>998.9252344899878</v>
+        <v>998.9252344899887</v>
       </c>
       <c r="F29" t="n">
-        <v>668.0491241697378</v>
+        <v>668.0491241697387</v>
       </c>
       <c r="G29" t="n">
-        <v>331.476688092941</v>
+        <v>331.4766880929417</v>
       </c>
       <c r="H29" t="n">
-        <v>97.5167187401929</v>
+        <v>97.51671874019289</v>
       </c>
       <c r="I29" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J29" t="n">
         <v>295.9441365847438</v>
       </c>
       <c r="K29" t="n">
-        <v>568.0535376325578</v>
+        <v>749.9722913275701</v>
       </c>
       <c r="L29" t="n">
-        <v>1183.592239049007</v>
+        <v>1266.97194745795</v>
       </c>
       <c r="M29" t="n">
-        <v>1885.104191458222</v>
+        <v>1968.483899867165</v>
       </c>
       <c r="N29" t="n">
-        <v>2583.335343119772</v>
+        <v>2666.715051528715</v>
       </c>
       <c r="O29" t="n">
-        <v>3197.467582298721</v>
+        <v>2903.855111257546</v>
       </c>
       <c r="P29" t="n">
-        <v>3365.36013598914</v>
+        <v>3390.328386037732</v>
       </c>
       <c r="Q29" t="n">
-        <v>3653.459545910319</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="R29" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S29" t="n">
         <v>3611.564051292015</v>
       </c>
       <c r="T29" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U29" t="n">
         <v>3305.099819795234</v>
       </c>
       <c r="V29" t="n">
-        <v>3054.14672692102</v>
+        <v>3054.146726921021</v>
       </c>
       <c r="W29" t="n">
-        <v>2781.487866120263</v>
+        <v>2781.487866120264</v>
       </c>
       <c r="X29" t="n">
-        <v>2488.131902328541</v>
+        <v>2488.131902328542</v>
       </c>
       <c r="Y29" t="n">
         <v>2178.102364822087</v>
@@ -6537,19 +6537,19 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I30" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J30" t="n">
         <v>212.3205486553472</v>
       </c>
       <c r="K30" t="n">
-        <v>314.2700628060635</v>
+        <v>576.0906474485164</v>
       </c>
       <c r="L30" t="n">
-        <v>864.8082489387632</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M30" t="n">
-        <v>1098.191553474772</v>
+        <v>1441.217988060473</v>
       </c>
       <c r="N30" t="n">
         <v>1695.186899129601</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.7589833420768</v>
+        <v>566.7589833420767</v>
       </c>
       <c r="C31" t="n">
-        <v>477.9325948835272</v>
+        <v>477.9325948835271</v>
       </c>
       <c r="D31" t="n">
         <v>407.9257499405488</v>
       </c>
       <c r="E31" t="n">
-        <v>340.1224508275131</v>
+        <v>340.122450827513</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3422977989601</v>
+        <v>273.34229779896</v>
       </c>
       <c r="G31" t="n">
-        <v>185.0271635782354</v>
+        <v>185.0271635782353</v>
       </c>
       <c r="H31" t="n">
         <v>112.4997163620377</v>
       </c>
       <c r="I31" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J31" t="n">
-        <v>147.1708219328277</v>
+        <v>147.170821932828</v>
       </c>
       <c r="K31" t="n">
-        <v>347.4491354406398</v>
+        <v>347.44913544064</v>
       </c>
       <c r="L31" t="n">
-        <v>637.3055192252452</v>
+        <v>637.3055192252455</v>
       </c>
       <c r="M31" t="n">
-        <v>949.0394661365351</v>
+        <v>949.0394661365355</v>
       </c>
       <c r="N31" t="n">
-        <v>1260.662618676065</v>
+        <v>1260.662618676066</v>
       </c>
       <c r="O31" t="n">
-        <v>1538.474478212274</v>
+        <v>1538.474478212275</v>
       </c>
       <c r="P31" t="n">
         <v>1764.001776889044</v>
       </c>
       <c r="Q31" t="n">
-        <v>1860.865579621833</v>
+        <v>1860.865579621834</v>
       </c>
       <c r="R31" t="n">
-        <v>1818.677031825937</v>
+        <v>1818.677031825938</v>
       </c>
       <c r="S31" t="n">
         <v>1694.516846774634</v>
@@ -6652,19 +6652,19 @@
         <v>1549.774723354822</v>
       </c>
       <c r="U31" t="n">
-        <v>1340.742264109925</v>
+        <v>1340.742264109924</v>
       </c>
       <c r="V31" t="n">
         <v>1166.167570373395</v>
       </c>
       <c r="W31" t="n">
-        <v>956.8601948057919</v>
+        <v>956.8601948057917</v>
       </c>
       <c r="X31" t="n">
-        <v>808.9804383771317</v>
+        <v>808.9804383771318</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.2976537029592</v>
+        <v>668.297653702959</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1871.612319227322</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.759596756268</v>
+        <v>1582.759596756267</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.603692618875</v>
+        <v>1304.603692618874</v>
       </c>
       <c r="E32" t="n">
-        <v>998.9252344899878</v>
+        <v>998.9252344899876</v>
       </c>
       <c r="F32" t="n">
         <v>668.0491241697378</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4766880929412</v>
+        <v>331.4766880929413</v>
       </c>
       <c r="H32" t="n">
-        <v>97.51671874019281</v>
+        <v>97.51671874019287</v>
       </c>
       <c r="I32" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J32" t="n">
         <v>295.9441365847438</v>
@@ -6704,13 +6704,13 @@
         <v>749.9722913275701</v>
       </c>
       <c r="L32" t="n">
-        <v>1365.51099274402</v>
+        <v>1242.003697409358</v>
       </c>
       <c r="M32" t="n">
-        <v>1999.496925536318</v>
+        <v>1943.515649818573</v>
       </c>
       <c r="N32" t="n">
-        <v>2264.754622030004</v>
+        <v>2641.746801480122</v>
       </c>
       <c r="O32" t="n">
         <v>2878.886861208954</v>
@@ -6722,7 +6722,7 @@
         <v>3653.459545910319</v>
       </c>
       <c r="R32" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S32" t="n">
         <v>3611.564051292015</v>
@@ -6731,7 +6731,7 @@
         <v>3478.649284483332</v>
       </c>
       <c r="U32" t="n">
-        <v>3305.099819795233</v>
+        <v>3305.099819795234</v>
       </c>
       <c r="V32" t="n">
         <v>3054.14672692102</v>
@@ -6774,28 +6774,28 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I33" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J33" t="n">
-        <v>87.49042366834249</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K33" t="n">
-        <v>189.4399378190588</v>
+        <v>576.0906474485164</v>
       </c>
       <c r="L33" t="n">
-        <v>480.214234670337</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.645552318846</v>
+        <v>1360.012138117225</v>
       </c>
       <c r="N33" t="n">
-        <v>1903.163413988091</v>
+        <v>1613.981049186352</v>
       </c>
       <c r="O33" t="n">
-        <v>2113.275555563492</v>
+        <v>1905.299040705002</v>
       </c>
       <c r="P33" t="n">
-        <v>2577.854147701624</v>
+        <v>2369.877632843134</v>
       </c>
       <c r="Q33" t="n">
         <v>2627.738349037781</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.7589833420762</v>
+        <v>566.7589833420766</v>
       </c>
       <c r="C34" t="n">
-        <v>477.9325948835268</v>
+        <v>477.9325948835271</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9257499405485</v>
+        <v>407.9257499405488</v>
       </c>
       <c r="E34" t="n">
-        <v>340.1224508275128</v>
+        <v>340.122450827513</v>
       </c>
       <c r="F34" t="n">
-        <v>273.3422977989599</v>
+        <v>273.3422977989601</v>
       </c>
       <c r="G34" t="n">
-        <v>185.0271635782353</v>
+        <v>185.0271635782354</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4997163620376</v>
+        <v>112.4997163620377</v>
       </c>
       <c r="I34" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J34" t="n">
         <v>147.170821932828</v>
@@ -6868,40 +6868,40 @@
         <v>949.0394661365357</v>
       </c>
       <c r="N34" t="n">
-        <v>1260.662618676064</v>
+        <v>1260.662618676066</v>
       </c>
       <c r="O34" t="n">
-        <v>1538.474478212273</v>
+        <v>1538.474478212275</v>
       </c>
       <c r="P34" t="n">
-        <v>1764.001776889042</v>
+        <v>1764.001776889043</v>
       </c>
       <c r="Q34" t="n">
-        <v>1860.865579621832</v>
+        <v>1860.865579621833</v>
       </c>
       <c r="R34" t="n">
-        <v>1818.677031825936</v>
+        <v>1818.677031825937</v>
       </c>
       <c r="S34" t="n">
         <v>1694.516846774633</v>
       </c>
       <c r="T34" t="n">
-        <v>1549.774723354821</v>
+        <v>1549.774723354822</v>
       </c>
       <c r="U34" t="n">
         <v>1340.742264109924</v>
       </c>
       <c r="V34" t="n">
-        <v>1166.167570373394</v>
+        <v>1166.167570373395</v>
       </c>
       <c r="W34" t="n">
-        <v>956.8601948057911</v>
+        <v>956.8601948057915</v>
       </c>
       <c r="X34" t="n">
-        <v>808.9804383771312</v>
+        <v>808.9804383771316</v>
       </c>
       <c r="Y34" t="n">
-        <v>668.2976537029585</v>
+        <v>668.2976537029589</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C35" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D35" t="n">
-        <v>963.8659528137387</v>
+        <v>963.8659528137393</v>
       </c>
       <c r="E35" t="n">
-        <v>732.0242284874073</v>
+        <v>732.0242284874079</v>
       </c>
       <c r="F35" t="n">
-        <v>474.984851969713</v>
+        <v>474.9848519697131</v>
       </c>
       <c r="G35" t="n">
         <v>212.2491496954706</v>
@@ -6950,10 +6950,10 @@
         <v>1519.995674161216</v>
       </c>
       <c r="O35" t="n">
-        <v>2134.127913340166</v>
+        <v>1806.754772513923</v>
       </c>
       <c r="P35" t="n">
-        <v>2503.419888047414</v>
+        <v>2293.228047294109</v>
       </c>
       <c r="Q35" t="n">
         <v>2581.327457215288</v>
@@ -6974,13 +6974,13 @@
         <v>2270.388584300552</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302351</v>
       </c>
       <c r="X35" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y35" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.7640580471561</v>
+        <v>955.7640580471563</v>
       </c>
       <c r="C36" t="n">
-        <v>781.3110287660292</v>
+        <v>781.3110287660293</v>
       </c>
       <c r="D36" t="n">
         <v>632.376619104778</v>
@@ -7002,10 +7002,10 @@
         <v>473.1391640993224</v>
       </c>
       <c r="F36" t="n">
-        <v>326.6046061262075</v>
+        <v>326.6046061262074</v>
       </c>
       <c r="G36" t="n">
-        <v>189.3801975165229</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H36" t="n">
         <v>90.5598768826743</v>
@@ -7020,13 +7020,13 @@
         <v>554.6480056746158</v>
       </c>
       <c r="L36" t="n">
-        <v>1105.186191807315</v>
+        <v>738.054249956891</v>
       </c>
       <c r="M36" t="n">
-        <v>1419.775346286572</v>
+        <v>1029.85165020261</v>
       </c>
       <c r="N36" t="n">
-        <v>1673.7442573557</v>
+        <v>1283.820561271738</v>
       </c>
       <c r="O36" t="n">
         <v>1883.856398931101</v>
@@ -7038,7 +7038,7 @@
         <v>2606.295707263881</v>
       </c>
       <c r="R36" t="n">
-        <v>2598.656161719379</v>
+        <v>2598.656161719378</v>
       </c>
       <c r="S36" t="n">
         <v>2453.219848663941</v>
@@ -7050,7 +7050,7 @@
         <v>2028.980658997655</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.828550765913</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W36" t="n">
         <v>1539.591194037711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>401.0406985830333</v>
+        <v>390.6702412254602</v>
       </c>
       <c r="C37" t="n">
-        <v>386.0510439270392</v>
+        <v>221.7340582975533</v>
       </c>
       <c r="D37" t="n">
-        <v>386.0510439270392</v>
+        <v>71.61741888521756</v>
       </c>
       <c r="E37" t="n">
-        <v>386.0510439270392</v>
+        <v>71.61741888521756</v>
       </c>
       <c r="F37" t="n">
-        <v>239.1610964291288</v>
+        <v>71.61741888521756</v>
       </c>
       <c r="G37" t="n">
-        <v>204.7631558308327</v>
+        <v>57.13901846704827</v>
       </c>
       <c r="H37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704827</v>
       </c>
       <c r="I37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704827</v>
       </c>
       <c r="J37" t="n">
         <v>52.12591414527761</v>
@@ -7135,10 +7135,10 @@
         <v>723.5782369109949</v>
       </c>
       <c r="X37" t="n">
-        <v>495.5886860129775</v>
+        <v>639.1647569273173</v>
       </c>
       <c r="Y37" t="n">
-        <v>428.7426351413602</v>
+        <v>572.3187060557</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1383.201111817074</v>
+        <v>1383.201111817075</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.185123148575</v>
+        <v>1168.185123148576</v>
       </c>
       <c r="D38" t="n">
-        <v>963.8659528137377</v>
+        <v>963.8659528137383</v>
       </c>
       <c r="E38" t="n">
-        <v>732.0242284874063</v>
+        <v>732.0242284874068</v>
       </c>
       <c r="F38" t="n">
-        <v>474.9848519697116</v>
+        <v>474.9848519697121</v>
       </c>
       <c r="G38" t="n">
         <v>212.2491496954706</v>
@@ -7172,28 +7172,28 @@
         <v>52.12591414527758</v>
       </c>
       <c r="J38" t="n">
-        <v>107.0958457904901</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K38" t="n">
-        <v>561.1240005333165</v>
+        <v>457.2447297320907</v>
       </c>
       <c r="L38" t="n">
-        <v>1072.831712088686</v>
+        <v>659.2988287435944</v>
       </c>
       <c r="M38" t="n">
-        <v>1329.325266339997</v>
+        <v>1304.357016291405</v>
       </c>
       <c r="N38" t="n">
-        <v>1594.582962833682</v>
+        <v>1569.61471278509</v>
       </c>
       <c r="O38" t="n">
-        <v>1831.723022562514</v>
+        <v>1806.754772513922</v>
       </c>
       <c r="P38" t="n">
-        <v>2318.1962973427</v>
+        <v>2293.228047294107</v>
       </c>
       <c r="Q38" t="n">
-        <v>2606.295707263879</v>
+        <v>2581.327457215287</v>
       </c>
       <c r="R38" t="n">
         <v>2606.295707263879</v>
@@ -7205,19 +7205,19 @@
         <v>2547.217674257751</v>
       </c>
       <c r="U38" t="n">
-        <v>2447.504943372208</v>
+        <v>2447.504943372209</v>
       </c>
       <c r="V38" t="n">
         <v>2270.388584300551</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.566457302349</v>
+        <v>2071.56645730235</v>
       </c>
       <c r="X38" t="n">
-        <v>1852.047227313182</v>
+        <v>1852.047227313183</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.854423609283</v>
+        <v>1615.854423609284</v>
       </c>
     </row>
     <row r="39">
@@ -7251,31 +7251,31 @@
         <v>52.12591414527758</v>
       </c>
       <c r="J39" t="n">
-        <v>66.04778189444184</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K39" t="n">
-        <v>167.9972960451582</v>
+        <v>554.6480056746158</v>
       </c>
       <c r="L39" t="n">
-        <v>718.5354821778578</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M39" t="n">
-        <v>951.9187867138666</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N39" t="n">
-        <v>1596.976974261677</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O39" t="n">
-        <v>2197.01281192104</v>
+        <v>1883.8563989311</v>
       </c>
       <c r="P39" t="n">
-        <v>2556.411505927723</v>
+        <v>2348.434991069232</v>
       </c>
       <c r="Q39" t="n">
-        <v>2606.29570726388</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="R39" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719377</v>
       </c>
       <c r="S39" t="n">
         <v>2453.219848663941</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1471.678271564957</v>
+        <v>401.0406985830333</v>
       </c>
       <c r="C40" t="n">
-        <v>1456.688616908963</v>
+        <v>232.1045156551264</v>
       </c>
       <c r="D40" t="n">
-        <v>1456.688616908963</v>
+        <v>81.98787624279066</v>
       </c>
       <c r="E40" t="n">
-        <v>1456.688616908963</v>
+        <v>71.61741888521753</v>
       </c>
       <c r="F40" t="n">
-        <v>1456.688616908963</v>
+        <v>71.61741888521753</v>
       </c>
       <c r="G40" t="n">
-        <v>1442.210216490794</v>
+        <v>57.13901846704825</v>
       </c>
       <c r="H40" t="n">
-        <v>1442.210216490794</v>
+        <v>57.13901846704825</v>
       </c>
       <c r="I40" t="n">
-        <v>1442.210216490794</v>
+        <v>57.13901846704825</v>
       </c>
       <c r="J40" t="n">
-        <v>1442.210216490794</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="K40" t="n">
-        <v>1563.972920439189</v>
+        <v>173.8886180936725</v>
       </c>
       <c r="L40" t="n">
-        <v>1775.313694664377</v>
+        <v>385.2293923188608</v>
       </c>
       <c r="M40" t="n">
-        <v>2008.53203201625</v>
+        <v>618.4477296707337</v>
       </c>
       <c r="N40" t="n">
-        <v>2241.639574996363</v>
+        <v>851.5552726508467</v>
       </c>
       <c r="O40" t="n">
-        <v>2440.935824973154</v>
+        <v>1050.851522627638</v>
       </c>
       <c r="P40" t="n">
-        <v>2587.947514090507</v>
+        <v>1197.863211744991</v>
       </c>
       <c r="Q40" t="n">
-        <v>2606.295707263879</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="R40" t="n">
-        <v>2483.997364998626</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="S40" t="n">
-        <v>2433.673913749878</v>
+        <v>1165.887953669615</v>
       </c>
       <c r="T40" t="n">
-        <v>2362.768524132622</v>
+        <v>1094.982564052359</v>
       </c>
       <c r="U40" t="n">
-        <v>2184.370939863853</v>
+        <v>959.7868386100167</v>
       </c>
       <c r="V40" t="n">
-        <v>1929.686451657966</v>
+        <v>859.0488786760427</v>
       </c>
       <c r="W40" t="n">
-        <v>1794.215809892919</v>
+        <v>723.5782369109949</v>
       </c>
       <c r="X40" t="n">
-        <v>1566.226258994901</v>
+        <v>649.5352142848903</v>
       </c>
       <c r="Y40" t="n">
-        <v>1499.380208123284</v>
+        <v>582.689163413273</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D41" t="n">
-        <v>963.8659528137387</v>
+        <v>963.8659528137391</v>
       </c>
       <c r="E41" t="n">
-        <v>732.0242284874073</v>
+        <v>732.0242284874079</v>
       </c>
       <c r="F41" t="n">
-        <v>474.9848519697127</v>
+        <v>474.9848519697132</v>
       </c>
       <c r="G41" t="n">
         <v>212.2491496954706</v>
@@ -7418,13 +7418,13 @@
         <v>609.6797901197201</v>
       </c>
       <c r="M41" t="n">
-        <v>866.1733443710311</v>
+        <v>1254.737977667531</v>
       </c>
       <c r="N41" t="n">
-        <v>1217.590783383566</v>
+        <v>1899.796165215341</v>
       </c>
       <c r="O41" t="n">
-        <v>1831.723022562515</v>
+        <v>2136.936224944173</v>
       </c>
       <c r="P41" t="n">
         <v>2318.196297342701</v>
@@ -7448,13 +7448,13 @@
         <v>2270.388584300552</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302351</v>
       </c>
       <c r="X41" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.7640580471563</v>
+        <v>955.7640580471557</v>
       </c>
       <c r="C42" t="n">
-        <v>781.3110287660293</v>
+        <v>781.3110287660287</v>
       </c>
       <c r="D42" t="n">
-        <v>632.376619104778</v>
+        <v>632.3766191047775</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1391640993224</v>
+        <v>473.139164099322</v>
       </c>
       <c r="F42" t="n">
-        <v>326.6046061262074</v>
+        <v>326.604606126207</v>
       </c>
       <c r="G42" t="n">
         <v>189.3801975165225</v>
@@ -7491,22 +7491,22 @@
         <v>190.8779068814466</v>
       </c>
       <c r="K42" t="n">
-        <v>292.8274210321629</v>
+        <v>554.6480056746158</v>
       </c>
       <c r="L42" t="n">
-        <v>843.3656071648627</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M42" t="n">
-        <v>1488.423794712673</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N42" t="n">
-        <v>2133.481982260484</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O42" t="n">
-        <v>2407.111054743129</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P42" t="n">
-        <v>2556.411505927724</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q42" t="n">
         <v>2606.295707263881</v>
@@ -7518,7 +7518,7 @@
         <v>2453.219848663941</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.105170892338</v>
       </c>
       <c r="U42" t="n">
         <v>2028.980658997655</v>
@@ -7527,7 +7527,7 @@
         <v>1793.828550765912</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.59119403771</v>
       </c>
       <c r="X42" t="n">
         <v>1331.739693832178</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.5404974913538</v>
+        <v>401.0406985830334</v>
       </c>
       <c r="C43" t="n">
-        <v>66.60431456344689</v>
+        <v>386.0510439270393</v>
       </c>
       <c r="D43" t="n">
-        <v>66.60431456344689</v>
+        <v>386.0510439270393</v>
       </c>
       <c r="E43" t="n">
-        <v>66.60431456344689</v>
+        <v>386.0510439270393</v>
       </c>
       <c r="F43" t="n">
-        <v>66.60431456344689</v>
+        <v>386.0510439270393</v>
       </c>
       <c r="G43" t="n">
-        <v>52.12591414527761</v>
+        <v>328.8172150648202</v>
       </c>
       <c r="H43" t="n">
-        <v>52.12591414527761</v>
+        <v>176.1799733792651</v>
       </c>
       <c r="I43" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704827</v>
       </c>
       <c r="J43" t="n">
         <v>52.12591414527761</v>
@@ -7591,28 +7591,28 @@
         <v>1216.211404918363</v>
       </c>
       <c r="R43" t="n">
-        <v>1093.91306265311</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="S43" t="n">
-        <v>1043.589611404362</v>
+        <v>1011.941425397702</v>
       </c>
       <c r="T43" t="n">
-        <v>972.6842217871053</v>
+        <v>941.0360357804459</v>
       </c>
       <c r="U43" t="n">
-        <v>683.5419680728508</v>
+        <v>805.840310338104</v>
       </c>
       <c r="V43" t="n">
-        <v>539.6021493124504</v>
+        <v>705.10235040413</v>
       </c>
       <c r="W43" t="n">
-        <v>404.1315075474025</v>
+        <v>569.6317086390821</v>
       </c>
       <c r="X43" t="n">
-        <v>330.088484921298</v>
+        <v>495.5886860129776</v>
       </c>
       <c r="Y43" t="n">
-        <v>263.2424340496807</v>
+        <v>428.7426351413603</v>
       </c>
     </row>
     <row r="44">
@@ -7652,22 +7652,22 @@
         <v>728.5296495536695</v>
       </c>
       <c r="L44" t="n">
-        <v>1258.055302793399</v>
+        <v>930.5837485651732</v>
       </c>
       <c r="M44" t="n">
-        <v>1514.54885704471</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N44" t="n">
-        <v>1779.806553538395</v>
+        <v>1452.334999310169</v>
       </c>
       <c r="O44" t="n">
-        <v>2016.946613267227</v>
+        <v>1831.723022562514</v>
       </c>
       <c r="P44" t="n">
-        <v>2503.419888047413</v>
+        <v>2318.1962973427</v>
       </c>
       <c r="Q44" t="n">
-        <v>2581.327457215287</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="R44" t="n">
         <v>2606.295707263879</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.764058047155</v>
+        <v>955.764058047156</v>
       </c>
       <c r="C45" t="n">
-        <v>781.311028766028</v>
+        <v>781.311028766029</v>
       </c>
       <c r="D45" t="n">
-        <v>632.3766191047768</v>
+        <v>632.3766191047778</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1391640993212</v>
+        <v>473.1391640993223</v>
       </c>
       <c r="F45" t="n">
-        <v>326.6046061262062</v>
+        <v>326.6046061262073</v>
       </c>
       <c r="G45" t="n">
         <v>189.3801975165225</v>
@@ -7731,46 +7731,46 @@
         <v>554.6480056746158</v>
       </c>
       <c r="L45" t="n">
-        <v>738.054249956891</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M45" t="n">
-        <v>1383.112437504701</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N45" t="n">
-        <v>1881.720772214189</v>
+        <v>1673.7442573557</v>
       </c>
       <c r="O45" t="n">
-        <v>2091.83291378959</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P45" t="n">
-        <v>2556.411505927722</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q45" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.29570726388</v>
       </c>
       <c r="R45" t="n">
-        <v>2598.656161719377</v>
+        <v>2598.656161719378</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.21984866394</v>
+        <v>2453.219848663941</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.105170892337</v>
+        <v>2257.105170892338</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.980658997654</v>
+        <v>2028.980658997655</v>
       </c>
       <c r="V45" t="n">
-        <v>1793.828550765911</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W45" t="n">
-        <v>1539.59119403771</v>
+        <v>1539.591194037711</v>
       </c>
       <c r="X45" t="n">
-        <v>1331.739693832177</v>
+        <v>1331.739693832178</v>
       </c>
       <c r="Y45" t="n">
-        <v>1123.979395067223</v>
+        <v>1123.979395067224</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.5404974913538</v>
+        <v>554.9872268549461</v>
       </c>
       <c r="C46" t="n">
-        <v>220.5508428353597</v>
+        <v>539.9975721989521</v>
       </c>
       <c r="D46" t="n">
-        <v>220.5508428353597</v>
+        <v>539.9975721989521</v>
       </c>
       <c r="E46" t="n">
-        <v>220.5508428353597</v>
+        <v>392.084478616559</v>
       </c>
       <c r="F46" t="n">
-        <v>220.5508428353597</v>
+        <v>245.1945311186486</v>
       </c>
       <c r="G46" t="n">
-        <v>52.12591414527758</v>
+        <v>76.76960242856651</v>
       </c>
       <c r="H46" t="n">
-        <v>52.12591414527758</v>
+        <v>57.13901846704825</v>
       </c>
       <c r="I46" t="n">
-        <v>52.12591414527758</v>
+        <v>57.13901846704825</v>
       </c>
       <c r="J46" t="n">
         <v>52.12591414527758</v>
@@ -7840,16 +7840,16 @@
         <v>959.7868386100167</v>
       </c>
       <c r="V46" t="n">
-        <v>705.1023504041299</v>
+        <v>859.0488786760427</v>
       </c>
       <c r="W46" t="n">
-        <v>558.0780358193153</v>
+        <v>723.5782369109949</v>
       </c>
       <c r="X46" t="n">
-        <v>484.0350131932108</v>
+        <v>649.5352142848903</v>
       </c>
       <c r="Y46" t="n">
-        <v>263.2424340496807</v>
+        <v>582.689163413273</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,16 +8775,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>57.33028936071452</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>143.5919575107645</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.9222468714792</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,19 +8933,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>90.11009817291279</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>304.0757828023248</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>12.77427514325893</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>179.135764424681</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>307.8704850172977</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>331.3767102300326</v>
+        <v>25.37766628364571</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>22.62399514569955</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>339.5161471632624</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>15.12097954294117</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.49596527844466</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>358.3523640614729</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>331.3767102300326</v>
+        <v>25.37766628364571</v>
       </c>
       <c r="P18" t="n">
-        <v>254.7449207209144</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>40.34143413747884</v>
       </c>
       <c r="L20" t="n">
-        <v>163.8018358341222</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>275.6741295044931</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>304.0757828023248</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.49596527844466</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>108.0634536193362</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>307.8704850172977</v>
+        <v>307.8704850172975</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>331.3767102300325</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>179.1357644246808</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>38.14371260210658</v>
       </c>
       <c r="L23" t="n">
-        <v>262.3672139044922</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>309.8901975290018</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.67204302603923</v>
+        <v>258.4776870786603</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>337.1911249567096</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,16 +9875,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>236.251602086483</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>381.3054328696865</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>323.4693740930942</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378617</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>140.3890957075159</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>318.1268253726024</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.49596527844466</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>82.026111053786</v>
       </c>
       <c r="N30" t="n">
-        <v>346.4913480663647</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>292.9063707780646</v>
       </c>
       <c r="M32" t="n">
-        <v>381.3054328696848</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>108.4525783525283</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.02611105378588</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>50.1202410342174</v>
       </c>
       <c r="P35" t="n">
-        <v>203.4337586028589</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>82.026111053786</v>
+        <v>59.0041370805157</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>50.12024103421652</v>
       </c>
       <c r="L38" t="n">
-        <v>312.7814268119856</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>392.4895285823224</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.49596527844466</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>395.0396732107903</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378446</v>
       </c>
       <c r="P39" t="n">
-        <v>212.2204472950394</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>392.4895285823227</v>
       </c>
       <c r="N41" t="n">
-        <v>87.03004294833266</v>
+        <v>383.6368596506316</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>13.50254414960645</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>415.8332151634361</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>395.0396732107906</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>64.15851606792404</v>
+        <v>82.02611105378588</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>330.7793477052784</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>143.6848116399118</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.49596527844466</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>415.8332151634357</v>
+        <v>82.02611105378554</v>
       </c>
       <c r="N45" t="n">
-        <v>247.1105289296571</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.1418457774242</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>261.6808958849512</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>278.3383741862054</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>303.284049855655</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H11" t="n">
         <v>207.3370702978283</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.91180785883452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.3023197792037</v>
       </c>
       <c r="U11" t="n">
         <v>147.5306706798247</v>
       </c>
       <c r="V11" t="n">
-        <v>101.2826321904433</v>
+        <v>224.1602625840785</v>
       </c>
       <c r="W11" t="n">
         <v>245.6489728313566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>266.1391047924126</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13.60999464056165</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7759735742654</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>261.6808958849512</v>
       </c>
       <c r="D14" t="n">
-        <v>251.0910457346266</v>
+        <v>212.868736045236</v>
       </c>
       <c r="E14" t="n">
-        <v>278.3383741862054</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>303.284049855655</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>207.3370702978283</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>41.91180785883452</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>147.5306706798247</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>224.1602625840785</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>22.56458067128804</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>22.56458067128808</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>22.56458067128804</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>22.56458067128803</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.81693585191</v>
       </c>
       <c r="C2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.8169358519</v>
       </c>
       <c r="D2" t="n">
         <v>40963.81693585193</v>
@@ -26323,22 +26323,22 @@
         <v>33791.59533663351</v>
       </c>
       <c r="F2" t="n">
-        <v>36692.0405086782</v>
+        <v>36692.04050867821</v>
       </c>
       <c r="G2" t="n">
-        <v>40962.28146214245</v>
+        <v>40962.28146214246</v>
       </c>
       <c r="H2" t="n">
-        <v>40962.28146214245</v>
+        <v>40962.28146214246</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321421</v>
@@ -26347,13 +26347,13 @@
         <v>41052.08849321421</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746153.534083069</v>
+        <v>746153.5340830688</v>
       </c>
       <c r="F3" t="n">
-        <v>53805.21405764103</v>
+        <v>53805.21405764099</v>
       </c>
       <c r="G3" t="n">
-        <v>63446.95721973104</v>
+        <v>63446.95721973106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>1546.174978532675</v>
       </c>
       <c r="J3" t="n">
-        <v>96855.72589324023</v>
+        <v>96855.72589324035</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63446.95721973111</v>
+        <v>63446.95721973106</v>
       </c>
       <c r="M3" t="n">
-        <v>80357.16505209096</v>
+        <v>80357.16505209095</v>
       </c>
       <c r="N3" t="n">
-        <v>45993.55612927211</v>
+        <v>45993.55612927207</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>142908.8103538439</v>
+        <v>142908.810353844</v>
       </c>
       <c r="F4" t="n">
-        <v>168497.449603743</v>
+        <v>168497.4496037431</v>
       </c>
       <c r="G4" t="n">
         <v>217171.7787696231</v>
@@ -26479,7 +26479,7 @@
         <v>45458.11311732123</v>
       </c>
       <c r="F5" t="n">
-        <v>56875.42608265273</v>
+        <v>56875.42608265272</v>
       </c>
       <c r="G5" t="n">
         <v>63542.82889078469</v>
@@ -26488,13 +26488,13 @@
         <v>63542.82889078469</v>
       </c>
       <c r="I5" t="n">
-        <v>63896.34530616666</v>
+        <v>63896.34530616664</v>
       </c>
       <c r="J5" t="n">
-        <v>77694.4951296895</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="K5" t="n">
-        <v>77694.4951296895</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="L5" t="n">
         <v>77694.49512968952</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439688.4033365409</v>
+        <v>-439692.816914409</v>
       </c>
       <c r="C6" t="n">
-        <v>-439688.4033365409</v>
+        <v>-439692.8169144091</v>
       </c>
       <c r="D6" t="n">
-        <v>-439688.4033365409</v>
+        <v>-439692.816914409</v>
       </c>
       <c r="E6" t="n">
-        <v>-900728.8622176006</v>
+        <v>-901091.8868754297</v>
       </c>
       <c r="F6" t="n">
-        <v>-242486.0492353586</v>
+        <v>-242704.0516345854</v>
       </c>
       <c r="G6" t="n">
-        <v>-303199.2834179964</v>
+        <v>-303203.77376955</v>
       </c>
       <c r="H6" t="n">
-        <v>-239752.3261982653</v>
+        <v>-239756.816549819</v>
       </c>
       <c r="I6" t="n">
-        <v>-242354.5164258589</v>
+        <v>-242354.516425859</v>
       </c>
       <c r="J6" t="n">
-        <v>-340561.2487593361</v>
+        <v>-340561.2487593362</v>
       </c>
       <c r="K6" t="n">
         <v>-243705.5228660959</v>
       </c>
       <c r="L6" t="n">
-        <v>-307152.4800858271</v>
+        <v>-307152.4800858269</v>
       </c>
       <c r="M6" t="n">
         <v>-320721.4315717242</v>
@@ -26707,13 +26707,13 @@
         <v>182.9006924107202</v>
       </c>
       <c r="J2" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K2" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="M2" t="n">
         <v>152.4070629891937</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="F3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="G3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="H3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="I3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="J3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="K3" t="n">
         <v>693.3481570175273</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505635</v>
+        <v>355.8264439505634</v>
       </c>
       <c r="F4" t="n">
-        <v>543.6111966698317</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="G4" t="n">
-        <v>543.6111966698317</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="H4" t="n">
-        <v>543.6111966698317</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="I4" t="n">
-        <v>549.4256113965087</v>
+        <v>549.4256113965084</v>
       </c>
       <c r="J4" t="n">
-        <v>919.6069489897278</v>
+        <v>919.606948989728</v>
       </c>
       <c r="K4" t="n">
-        <v>919.6069489897278</v>
+        <v>919.6069489897279</v>
       </c>
       <c r="L4" t="n">
-        <v>919.6069489897278</v>
+        <v>919.6069489897279</v>
       </c>
       <c r="M4" t="n">
         <v>651.5739268159701</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466389</v>
+        <v>79.30869652466383</v>
       </c>
       <c r="M2" t="n">
-        <v>73.0983664645298</v>
+        <v>73.09836646452985</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175273</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505635</v>
+        <v>355.8264439505634</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7847527192682</v>
+        <v>187.784752719268</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>5.814414726677001</v>
       </c>
       <c r="J4" t="n">
-        <v>370.1813375932192</v>
+        <v>370.1813375932196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>87.79342177680581</v>
+        <v>87.79342177680564</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192678</v>
+        <v>187.7847527192677</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.8264439505635</v>
+        <v>355.8264439505634</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192682</v>
+        <v>187.784752719268</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>103.5919958860564</v>
-      </c>
-      <c r="C12" t="n">
-        <v>103.5919958860564</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>103.5919958860564</v>
@@ -28184,10 +28184,10 @@
         <v>103.5919958860564</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I12" t="n">
-        <v>38.04962311002271</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>103.5919958860564</v>
       </c>
       <c r="U12" t="n">
-        <v>103.5919958860564</v>
+        <v>79.52712799203033</v>
       </c>
       <c r="V12" t="n">
         <v>103.5919958860564</v>
@@ -28235,7 +28235,7 @@
         <v>103.5919958860564</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.76724953348372</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="13">
@@ -28269,28 +28269,28 @@
         <v>103.5919958860564</v>
       </c>
       <c r="J13" t="n">
-        <v>4.962973278552951</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>25.90102793811252</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>103.5919958860564</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="Q13" t="n">
         <v>103.5919958860564</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>25.90102793811263</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>103.5919958860564</v>
@@ -28412,19 +28412,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>103.5919958860564</v>
       </c>
-      <c r="F15" t="n">
-        <v>4.613779606908793</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.37365806545626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T15" t="n">
         <v>103.5919958860564</v>
@@ -28466,10 +28466,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28509,19 +28509,19 @@
         <v>103.5919958860564</v>
       </c>
       <c r="K16" t="n">
+        <v>30.86400121666512</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>103.5919958860564</v>
-      </c>
-      <c r="L16" t="n">
-        <v>30.86400121666577</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H18" t="n">
-        <v>88.62818370741756</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.265908165131719</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.8963935306972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28737,13 +28737,13 @@
         <v>166.7406794031812</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J19" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S19" t="n">
-        <v>182.9006924107202</v>
+        <v>148.9635894641318</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28782,10 +28782,10 @@
         <v>182.9006924107202</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="X19" t="n">
-        <v>182.9006924107202</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>182.9006924107202</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>100.1993302028815</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H21" t="n">
         <v>97.83211742750971</v>
       </c>
       <c r="I21" t="n">
-        <v>38.04962311002271</v>
+        <v>2.396788789317156</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,10 +28931,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9006924107202</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.7406794031812</v>
@@ -29010,19 +29010,19 @@
         <v>182.9006924107202</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>143.3994809848617</v>
       </c>
       <c r="U22" t="n">
-        <v>108.9885488258559</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>182.9006924107202</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>182.9006924107202</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="Y22" t="n">
         <v>182.9006924107202</v>
@@ -29123,16 +29123,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>68.44727767574291</v>
       </c>
       <c r="H24" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.563150089057089</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>133.376834507878</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29196,28 +29196,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7406794031812</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1108692686995</v>
+        <v>79.67006075671164</v>
       </c>
       <c r="I25" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J25" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29247,13 +29247,13 @@
         <v>182.9006924107202</v>
       </c>
       <c r="T25" t="n">
-        <v>101.8440651756597</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U25" t="n">
         <v>182.9006924107202</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="W25" t="n">
         <v>182.9006924107202</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="M28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="N28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.30869652466356</v>
       </c>
       <c r="O28" t="n">
-        <v>79.3086965246639</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="P28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="R28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="S28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="M31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="N31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="O31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="P31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="R31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="S31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.30869652466377</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="C32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="D32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="E32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="F32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="G32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="H32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="I32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="T32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="U32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="V32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="W32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="X32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="C34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="D34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="E34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="F34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="G34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="H34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="I34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="J34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="K34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="L34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="M34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="N34" t="n">
-        <v>79.30869652466146</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="O34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="P34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466259</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="R34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="S34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="T34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="U34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="V34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="W34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="X34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466382</v>
       </c>
     </row>
     <row r="35">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6867182108681</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I37" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J37" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30207,7 +30207,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>142.1403102051964</v>
       </c>
       <c r="Y37" t="n">
         <v>152.4070629891937</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,16 +30378,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>136.1672098625718</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30402,7 +30402,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J40" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S40" t="n">
         <v>152.4070629891937</v>
@@ -30435,16 +30435,16 @@
         <v>152.4070629891937</v>
       </c>
       <c r="U40" t="n">
-        <v>109.6372227510315</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W40" t="n">
         <v>152.4070629891937</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="Y40" t="n">
         <v>152.4070629891937</v>
@@ -30618,7 +30618,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30630,16 +30630,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>152.4070629891937</v>
+        <v>110.0791888295843</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>117.8505453630947</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,19 +30663,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S43" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>152.4070629891937</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="V43" t="n">
-        <v>109.6372227510316</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W43" t="n">
         <v>152.4070629891937</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30861,22 +30861,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.1108692686995</v>
+        <v>131.6765911467965</v>
       </c>
       <c r="I46" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J46" t="n">
-        <v>4.962973278552951</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30912,16 +30912,16 @@
         <v>152.4070629891937</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9689268976246</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="X46" t="n">
         <v>152.4070629891937</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H11" t="n">
         <v>28.5457359318824</v>
@@ -31759,16 +31759,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J11" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K11" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L11" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M11" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N11" t="n">
         <v>497.3501307619294</v>
@@ -31777,22 +31777,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P11" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R11" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S11" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T11" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,37 +31841,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K12" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L12" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M12" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N12" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O12" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P12" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q12" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R12" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S12" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T12" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H13" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I13" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J13" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K13" t="n">
         <v>145.2621220767868</v>
@@ -31926,28 +31926,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M13" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N13" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O13" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P13" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q13" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R13" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S13" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T13" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U13" t="n">
         <v>0.06819817937877325</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H14" t="n">
         <v>28.5457359318824</v>
@@ -31996,16 +31996,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J14" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K14" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L14" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M14" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N14" t="n">
         <v>497.3501307619294</v>
@@ -32014,22 +32014,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P14" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R14" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S14" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T14" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,37 +32078,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K15" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L15" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M15" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N15" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O15" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P15" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q15" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R15" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S15" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T15" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H16" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I16" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J16" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K16" t="n">
         <v>145.2621220767868</v>
@@ -32163,28 +32163,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M16" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N16" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O16" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P16" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q16" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R16" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S16" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T16" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U16" t="n">
         <v>0.06819817937877325</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H17" t="n">
         <v>28.5457359318824</v>
@@ -32233,16 +32233,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J17" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K17" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L17" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M17" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N17" t="n">
         <v>497.3501307619294</v>
@@ -32251,22 +32251,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P17" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R17" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S17" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T17" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,37 +32315,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K18" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L18" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M18" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N18" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O18" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P18" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q18" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R18" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S18" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T18" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H19" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I19" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J19" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K19" t="n">
         <v>145.2621220767868</v>
@@ -32400,28 +32400,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M19" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N19" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O19" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P19" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q19" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R19" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S19" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T19" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U19" t="n">
         <v>0.06819817937877325</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H20" t="n">
         <v>28.5457359318824</v>
@@ -32470,16 +32470,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J20" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K20" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L20" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M20" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N20" t="n">
         <v>497.3501307619294</v>
@@ -32488,22 +32488,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P20" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R20" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S20" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T20" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,37 +32552,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K21" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L21" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M21" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N21" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O21" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P21" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q21" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R21" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S21" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T21" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H22" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I22" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J22" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K22" t="n">
         <v>145.2621220767868</v>
@@ -32637,28 +32637,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M22" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N22" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O22" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P22" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q22" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R22" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S22" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T22" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U22" t="n">
         <v>0.06819817937877325</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H23" t="n">
         <v>28.5457359318824</v>
@@ -32707,16 +32707,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J23" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K23" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L23" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M23" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N23" t="n">
         <v>497.3501307619294</v>
@@ -32725,22 +32725,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P23" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R23" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S23" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T23" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,37 +32789,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K24" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L24" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M24" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N24" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O24" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P24" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q24" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R24" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S24" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T24" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H25" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I25" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J25" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K25" t="n">
         <v>145.2621220767868</v>
@@ -32874,28 +32874,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M25" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N25" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O25" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P25" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q25" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R25" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S25" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T25" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U25" t="n">
         <v>0.06819817937877325</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.787329274442319</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H26" t="n">
         <v>28.5457359318824</v>
@@ -32944,16 +32944,16 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J26" t="n">
-        <v>236.571088006699</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K26" t="n">
-        <v>354.5587361938424</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L26" t="n">
-        <v>439.8614644765566</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M26" t="n">
-        <v>489.4306314609202</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N26" t="n">
         <v>497.3501307619294</v>
@@ -32962,22 +32962,22 @@
         <v>469.6336252891936</v>
       </c>
       <c r="P26" t="n">
-        <v>400.8214338263988</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.0002041854332</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R26" t="n">
-        <v>175.0895725356875</v>
+        <v>175.0895725356874</v>
       </c>
       <c r="S26" t="n">
         <v>63.5162658413544</v>
       </c>
       <c r="T26" t="n">
-        <v>12.20153389887126</v>
+        <v>12.20153389887125</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2229863419553855</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,37 +33026,37 @@
         <v>140.9001193425902</v>
       </c>
       <c r="K27" t="n">
-        <v>240.8207461973048</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L27" t="n">
-        <v>323.813212388233</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M27" t="n">
-        <v>377.8747455745524</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N27" t="n">
-        <v>387.8759656885128</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O27" t="n">
-        <v>354.8307308842435</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P27" t="n">
-        <v>284.7829439644256</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q27" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R27" t="n">
-        <v>92.59468406358604</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S27" t="n">
-        <v>27.70122117895497</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T27" t="n">
-        <v>6.011197700934975</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09811530523832938</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H28" t="n">
-        <v>11.11630323874004</v>
+        <v>11.11630323874003</v>
       </c>
       <c r="I28" t="n">
         <v>37.59992956416362</v>
       </c>
       <c r="J28" t="n">
-        <v>88.39620683811982</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K28" t="n">
         <v>145.2621220767868</v>
@@ -33111,28 +33111,28 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M28" t="n">
-        <v>195.9902011713643</v>
+        <v>195.9902011713642</v>
       </c>
       <c r="N28" t="n">
-        <v>191.3299922471483</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O28" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P28" t="n">
-        <v>151.2180964091997</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q28" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R28" t="n">
-        <v>56.21803253456867</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S28" t="n">
         <v>21.78931831151802</v>
       </c>
       <c r="T28" t="n">
-        <v>5.342190718003898</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U28" t="n">
         <v>0.06819817937877325</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.52518348001269</v>
+        <v>55.52518348001266</v>
       </c>
       <c r="K11" t="n">
         <v>134.4688851488618</v>
       </c>
       <c r="L11" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M11" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N11" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O11" t="n">
-        <v>239.5354138675069</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P11" t="n">
         <v>169.5884380711292</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.69451431098369</v>
+        <v>78.69451431098364</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.06249267592349</v>
+        <v>14.06249267592347</v>
       </c>
       <c r="K12" t="n">
-        <v>102.9793072229458</v>
+        <v>102.9793072229457</v>
       </c>
       <c r="L12" t="n">
-        <v>185.2588326083588</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M12" t="n">
-        <v>293.0710010132486</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N12" t="n">
-        <v>256.5342536051795</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O12" t="n">
-        <v>355.8264439505635</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P12" t="n">
-        <v>150.8085365500953</v>
+        <v>351.7307834215745</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.38808215773432</v>
+        <v>50.38808215773429</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>226.5846261369604</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L13" t="n">
-        <v>213.4755295203923</v>
+        <v>239.3765574585047</v>
       </c>
       <c r="M13" t="n">
-        <v>339.1660740192613</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N13" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O13" t="n">
         <v>201.3093434109006</v>
       </c>
       <c r="P13" t="n">
-        <v>174.3976836122058</v>
+        <v>252.0886515601495</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.53352845795224</v>
+        <v>122.1255243440087</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.52518348001269</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K14" t="n">
-        <v>458.6142977200266</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L14" t="n">
-        <v>204.0950495065694</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M14" t="n">
-        <v>349.1944964065602</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N14" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O14" t="n">
-        <v>543.6111966698317</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P14" t="n">
-        <v>169.5884380711292</v>
+        <v>182.3627132143881</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R14" t="n">
-        <v>25.22045459453778</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K15" t="n">
-        <v>282.1150716476268</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L15" t="n">
-        <v>185.2588326083588</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M15" t="n">
-        <v>543.6111966698317</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N15" t="n">
-        <v>256.5342536051795</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O15" t="n">
-        <v>543.6111966698317</v>
+        <v>237.6121527234447</v>
       </c>
       <c r="P15" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>98.62902260750343</v>
+        <v>98.62902260750346</v>
       </c>
       <c r="K16" t="n">
-        <v>226.5846261369604</v>
+        <v>153.8566314675691</v>
       </c>
       <c r="L16" t="n">
-        <v>244.339530737058</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N16" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O16" t="n">
-        <v>201.3093434109006</v>
+        <v>304.901339296957</v>
       </c>
       <c r="P16" t="n">
         <v>148.4966556740931</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.6217986520865</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K17" t="n">
-        <v>157.0928802945614</v>
+        <v>134.4688851488618</v>
       </c>
       <c r="L17" t="n">
-        <v>543.6111966698317</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M17" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N17" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O17" t="n">
-        <v>239.5354138675069</v>
+        <v>254.656393410448</v>
       </c>
       <c r="P17" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q17" t="n">
-        <v>291.0095049708884</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K18" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L18" t="n">
-        <v>543.6111966698317</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M18" t="n">
-        <v>235.7407116525341</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N18" t="n">
-        <v>256.5342536051795</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O18" t="n">
-        <v>543.6111966698317</v>
+        <v>237.6121527234447</v>
       </c>
       <c r="P18" t="n">
-        <v>405.5534572710097</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.992630250904</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L19" t="n">
-        <v>213.4755295203923</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M19" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N19" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O19" t="n">
         <v>201.3093434109006</v>
@@ -36060,7 +36060,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.52518348001269</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K20" t="n">
-        <v>134.4688851488618</v>
+        <v>174.8103192863406</v>
       </c>
       <c r="L20" t="n">
-        <v>367.8968853406916</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M20" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N20" t="n">
-        <v>543.6111966698317</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O20" t="n">
-        <v>543.6111966698317</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P20" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1259462952597</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K21" t="n">
-        <v>102.9793072229458</v>
+        <v>102.9793072229457</v>
       </c>
       <c r="L21" t="n">
-        <v>185.2588326083588</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M21" t="n">
-        <v>543.6111966698317</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="N21" t="n">
-        <v>256.5342536051795</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O21" t="n">
-        <v>212.234486439799</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="P21" t="n">
-        <v>469.2713051900325</v>
+        <v>329.944300974776</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.4653698935834</v>
+        <v>50.38808215773429</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.992630250904</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L22" t="n">
-        <v>213.4755295203923</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M22" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N22" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O22" t="n">
         <v>201.3093434109006</v>
@@ -36297,7 +36297,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.6217986520865</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K23" t="n">
-        <v>134.4688851488618</v>
+        <v>172.6125977509683</v>
       </c>
       <c r="L23" t="n">
-        <v>466.4622634110615</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M23" t="n">
-        <v>259.0843982336474</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N23" t="n">
         <v>267.9370671653385</v>
       </c>
       <c r="O23" t="n">
-        <v>549.4256113965087</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P23" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R23" t="n">
-        <v>25.22045459453778</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K24" t="n">
-        <v>367.4445442355244</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L24" t="n">
-        <v>214.930875634398</v>
+        <v>443.736519687019</v>
       </c>
       <c r="M24" t="n">
-        <v>235.7407116525341</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N24" t="n">
-        <v>256.5342536051795</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O24" t="n">
-        <v>549.4256113965087</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P24" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.4653698935834</v>
+        <v>50.38808215773429</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.992630250904</v>
+        <v>122.9926302509039</v>
       </c>
       <c r="L25" t="n">
-        <v>213.4755295203923</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M25" t="n">
-        <v>235.5740781332049</v>
+        <v>235.5740781332048</v>
       </c>
       <c r="N25" t="n">
-        <v>235.4621646263769</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O25" t="n">
         <v>201.3093434109006</v>
@@ -36534,7 +36534,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.53352845795224</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.6217986520865</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K26" t="n">
-        <v>370.7204872353449</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L26" t="n">
-        <v>204.0950495065694</v>
+        <v>621.7562640570197</v>
       </c>
       <c r="M26" t="n">
-        <v>708.5979317264799</v>
+        <v>640.3898311033338</v>
       </c>
       <c r="N26" t="n">
-        <v>705.2839915773227</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O26" t="n">
-        <v>620.3355951302523</v>
+        <v>620.3355951302522</v>
       </c>
       <c r="P26" t="n">
-        <v>491.3871462426119</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.0095049708884</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R26" t="n">
-        <v>25.22045459453778</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K27" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L27" t="n">
-        <v>508.728206701453</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M27" t="n">
-        <v>235.7407116525341</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N27" t="n">
-        <v>256.5342536051795</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O27" t="n">
-        <v>606.0968057165285</v>
+        <v>294.2605974935851</v>
       </c>
       <c r="P27" t="n">
-        <v>469.2713051900325</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q27" t="n">
         <v>260.4653698935834</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.34572324611082</v>
+        <v>74.34572324611084</v>
       </c>
       <c r="K28" t="n">
         <v>202.3013267755678</v>
@@ -36762,16 +36762,16 @@
         <v>314.8827746578687</v>
       </c>
       <c r="N28" t="n">
-        <v>314.7708611510407</v>
+        <v>314.7708611510404</v>
       </c>
       <c r="O28" t="n">
-        <v>280.6180399355645</v>
+        <v>280.6180399355644</v>
       </c>
       <c r="P28" t="n">
         <v>227.8053521987569</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.84222498261602</v>
+        <v>97.84222498261603</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>224.6217986520865</v>
       </c>
       <c r="K29" t="n">
-        <v>274.8579808563777</v>
+        <v>458.6142977200266</v>
       </c>
       <c r="L29" t="n">
-        <v>621.7562640570197</v>
+        <v>522.2218748791718</v>
       </c>
       <c r="M29" t="n">
         <v>708.5979317264799</v>
@@ -36844,16 +36844,16 @@
         <v>705.2839915773227</v>
       </c>
       <c r="O29" t="n">
-        <v>620.3355951302523</v>
+        <v>239.5354138675069</v>
       </c>
       <c r="P29" t="n">
-        <v>169.5884380711292</v>
+        <v>491.3871462426119</v>
       </c>
       <c r="Q29" t="n">
         <v>291.0095049708884</v>
       </c>
       <c r="R29" t="n">
-        <v>25.22045459453778</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K30" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355244</v>
       </c>
       <c r="L30" t="n">
         <v>556.0991779118179</v>
       </c>
       <c r="M30" t="n">
-        <v>235.7407116525341</v>
+        <v>317.7668227063201</v>
       </c>
       <c r="N30" t="n">
-        <v>603.0256016715442</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O30" t="n">
         <v>212.234486439799</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.34572324611082</v>
+        <v>74.34572324611085</v>
       </c>
       <c r="K31" t="n">
         <v>202.3013267755678</v>
       </c>
       <c r="L31" t="n">
-        <v>292.784226045056</v>
+        <v>292.7842260450561</v>
       </c>
       <c r="M31" t="n">
         <v>314.8827746578687</v>
@@ -37005,10 +37005,10 @@
         <v>280.6180399355644</v>
       </c>
       <c r="P31" t="n">
-        <v>227.8053521987569</v>
+        <v>227.805352198757</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.84222498261602</v>
+        <v>97.84222498261605</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>458.6142977200266</v>
       </c>
       <c r="L32" t="n">
-        <v>621.7562640570197</v>
+        <v>497.001420284634</v>
       </c>
       <c r="M32" t="n">
-        <v>640.3898311033322</v>
+        <v>708.5979317264799</v>
       </c>
       <c r="N32" t="n">
-        <v>267.9370671653385</v>
+        <v>705.2839915773227</v>
       </c>
       <c r="O32" t="n">
-        <v>620.3355951302523</v>
+        <v>239.5354138675069</v>
       </c>
       <c r="P32" t="n">
         <v>491.3871462426119</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K33" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355244</v>
       </c>
       <c r="L33" t="n">
-        <v>293.7114109608871</v>
+        <v>556.0991779118179</v>
       </c>
       <c r="M33" t="n">
-        <v>701.445775402534</v>
+        <v>235.7407116525341</v>
       </c>
       <c r="N33" t="n">
-        <v>735.876627948733</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O33" t="n">
-        <v>212.234486439799</v>
+        <v>294.2605974935849</v>
       </c>
       <c r="P33" t="n">
         <v>469.2713051900325</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.34572324611091</v>
+        <v>74.34572324611086</v>
       </c>
       <c r="K34" t="n">
         <v>202.3013267755678</v>
@@ -37236,16 +37236,16 @@
         <v>314.8827746578687</v>
       </c>
       <c r="N34" t="n">
-        <v>314.7708611510383</v>
+        <v>314.7708611510407</v>
       </c>
       <c r="O34" t="n">
-        <v>280.6180399355645</v>
+        <v>280.6180399355644</v>
       </c>
       <c r="P34" t="n">
-        <v>227.805352198757</v>
+        <v>227.8053521987557</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.8422249826161</v>
+        <v>97.84222498261606</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>267.9370671653385</v>
       </c>
       <c r="O35" t="n">
-        <v>620.3355951302523</v>
+        <v>289.6556549017243</v>
       </c>
       <c r="P35" t="n">
-        <v>373.0221966739882</v>
+        <v>491.3871462426119</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708884</v>
       </c>
       <c r="R35" t="n">
         <v>25.22045459453778</v>
@@ -37388,16 +37388,16 @@
         <v>367.4445442355244</v>
       </c>
       <c r="L36" t="n">
-        <v>556.0991779118179</v>
+        <v>185.2588326083588</v>
       </c>
       <c r="M36" t="n">
-        <v>317.7668227063201</v>
+        <v>294.7448487330498</v>
       </c>
       <c r="N36" t="n">
         <v>256.5342536051795</v>
       </c>
       <c r="O36" t="n">
-        <v>212.234486439799</v>
+        <v>606.0968057165285</v>
       </c>
       <c r="P36" t="n">
         <v>469.2713051900325</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.52518348001269</v>
+        <v>224.6217986520865</v>
       </c>
       <c r="K38" t="n">
-        <v>458.6142977200266</v>
+        <v>184.5891261830783</v>
       </c>
       <c r="L38" t="n">
-        <v>516.876476318555</v>
+        <v>204.0950495065694</v>
       </c>
       <c r="M38" t="n">
-        <v>259.0843982336474</v>
+        <v>651.5739268159698</v>
       </c>
       <c r="N38" t="n">
         <v>267.9370671653385</v>
@@ -37564,7 +37564,7 @@
         <v>291.0095049708884</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>25.22045459453778</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.06249267592349</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K39" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355244</v>
       </c>
       <c r="L39" t="n">
         <v>556.0991779118179</v>
@@ -37631,16 +37631,16 @@
         <v>235.7407116525341</v>
       </c>
       <c r="N39" t="n">
-        <v>651.5739268159698</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O39" t="n">
-        <v>606.0968057165285</v>
+        <v>294.2605974935835</v>
       </c>
       <c r="P39" t="n">
-        <v>363.0289838451347</v>
+        <v>469.2713051900325</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>204.0950495065694</v>
       </c>
       <c r="M41" t="n">
-        <v>259.0843982336474</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N41" t="n">
-        <v>354.9671101136712</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="O41" t="n">
-        <v>620.3355951302523</v>
+        <v>239.5354138675069</v>
       </c>
       <c r="P41" t="n">
-        <v>491.3871462426119</v>
+        <v>183.0909822207357</v>
       </c>
       <c r="Q41" t="n">
         <v>291.0095049708884</v>
@@ -37859,25 +37859,25 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K42" t="n">
-        <v>102.9793072229458</v>
+        <v>367.4445442355244</v>
       </c>
       <c r="L42" t="n">
         <v>556.0991779118179</v>
       </c>
       <c r="M42" t="n">
-        <v>651.5739268159701</v>
+        <v>235.7407116525341</v>
       </c>
       <c r="N42" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O42" t="n">
-        <v>276.3930025077231</v>
+        <v>294.2605974935849</v>
       </c>
       <c r="P42" t="n">
-        <v>150.8085365500953</v>
+        <v>469.2713051900325</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>458.6142977200266</v>
       </c>
       <c r="L44" t="n">
-        <v>534.8743972118477</v>
+        <v>204.0950495065694</v>
       </c>
       <c r="M44" t="n">
         <v>259.0843982336474</v>
@@ -38029,16 +38029,16 @@
         <v>267.9370671653385</v>
       </c>
       <c r="O44" t="n">
-        <v>239.5354138675069</v>
+        <v>383.2202255074187</v>
       </c>
       <c r="P44" t="n">
         <v>491.3871462426119</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.69451431098369</v>
+        <v>291.0095049708884</v>
       </c>
       <c r="R44" t="n">
-        <v>25.22045459453778</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>367.4445442355244</v>
       </c>
       <c r="L45" t="n">
-        <v>185.2588326083588</v>
+        <v>556.0991779118179</v>
       </c>
       <c r="M45" t="n">
-        <v>651.5739268159698</v>
+        <v>317.7668227063196</v>
       </c>
       <c r="N45" t="n">
-        <v>503.6447825348366</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O45" t="n">
         <v>212.234486439799</v>
@@ -38114,7 +38114,7 @@
         <v>469.2713051900325</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38808215773432</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
